--- a/市場_2025改修/詳細設計_2025/7_詳細設計書(テナント).xlsx
+++ b/市場_2025改修/詳細設計_2025/7_詳細設計書(テナント).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts\Documents\サントク\202205姫路市VBA\200_2025改修\v0\詳細設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EB7434-1349-405A-BC82-58A8C813B417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C4F9CE-CBCF-4CDB-BF81-27C223997637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="138">
   <si>
     <t>作成者</t>
   </si>
@@ -1231,6 +1231,26 @@
 口座振替データ作成機能構築業務</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>銀行関係追加</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示のみ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1240,7 +1260,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -1322,6 +1342,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1648,7 +1675,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1782,6 +1809,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1797,45 +1833,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1845,6 +1866,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1852,27 +1903,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1882,6 +1912,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1895,6 +1926,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1903,7 +1943,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1913,59 +1988,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2371,7 +2404,7 @@
   </sheetPr>
   <dimension ref="C1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2404,50 +2437,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="58"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -2470,10 +2503,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="50"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -2496,42 +2529,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="50"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="49" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="50"/>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="49" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="50"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="49" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="50"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
       <c r="N17" s="7" t="s">
         <v>81</v>
       </c>
@@ -2561,6 +2594,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2569,12 +2608,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2589,7 +2622,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="I6" sqref="I5:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -2603,52 +2636,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
+      <c r="Q1" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="62"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2674,427 +2709,437 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66" t="s">
+      <c r="E4" s="60"/>
+      <c r="F4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
+      <c r="B5" s="112">
+        <v>45001</v>
+      </c>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
+      <c r="B6" s="114">
+        <v>45889</v>
+      </c>
+      <c r="C6" s="114"/>
+      <c r="D6" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="113"/>
+      <c r="F6" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -3105,30 +3150,46 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
     <mergeCell ref="B9:C9"/>
@@ -3145,46 +3206,30 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -3210,56 +3255,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="76" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="108" t="str">
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="71" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="80" t="s">
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="80"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="80"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
       <c r="AO1" s="75" t="s">
         <v>14</v>
       </c>
@@ -3269,13 +3314,13 @@
       <c r="AS1" s="75"/>
       <c r="AT1" s="75"/>
       <c r="AU1" s="75"/>
-      <c r="AV1" s="80" t="s">
+      <c r="AV1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="80"/>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="74"/>
+      <c r="AZ1" s="74"/>
       <c r="BA1" s="75"/>
       <c r="BB1" s="75"/>
       <c r="BC1" s="75"/>
@@ -3284,54 +3329,54 @@
       <c r="BF1" s="75"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="76" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="77" t="str">
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="76" t="str">
         <f>表紙!H15</f>
         <v>テナント</v>
       </c>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="80" t="s">
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="81">
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="79">
         <v>44752</v>
       </c>
       <c r="AP2" s="75"/>
@@ -3340,13 +3385,13 @@
       <c r="AS2" s="75"/>
       <c r="AT2" s="75"/>
       <c r="AU2" s="75"/>
-      <c r="AV2" s="80" t="s">
+      <c r="AV2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="80"/>
-      <c r="AY2" s="80"/>
-      <c r="AZ2" s="80"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="74"/>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
       <c r="BA2" s="75"/>
       <c r="BB2" s="75"/>
       <c r="BC2" s="75"/>
@@ -3355,68 +3400,68 @@
       <c r="BF2" s="75"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="72" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="74"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="81"/>
+      <c r="AS3" s="81"/>
+      <c r="AT3" s="81"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="81"/>
+      <c r="AX3" s="81"/>
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="81"/>
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="81"/>
+      <c r="BE3" s="81"/>
+      <c r="BF3" s="82"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -3427,434 +3472,434 @@
     <row r="5" spans="1:58">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="69" t="s">
+      <c r="AO5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
-      <c r="AU5" s="70" t="s">
+      <c r="AP5" s="61"/>
+      <c r="AQ5" s="61"/>
+      <c r="AR5" s="61"/>
+      <c r="AS5" s="61"/>
+      <c r="AT5" s="61"/>
+      <c r="AU5" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="AV5" s="70"/>
-      <c r="AW5" s="70"/>
-      <c r="AX5" s="70"/>
-      <c r="AY5" s="70"/>
-      <c r="AZ5" s="70"/>
-      <c r="BA5" s="70"/>
-      <c r="BB5" s="70"/>
-      <c r="BC5" s="70"/>
-      <c r="BD5" s="70"/>
-      <c r="BE5" s="70"/>
-      <c r="BF5" s="71"/>
+      <c r="AV5" s="68"/>
+      <c r="AW5" s="68"/>
+      <c r="AX5" s="68"/>
+      <c r="AY5" s="68"/>
+      <c r="AZ5" s="68"/>
+      <c r="BA5" s="68"/>
+      <c r="BB5" s="68"/>
+      <c r="BC5" s="68"/>
+      <c r="BD5" s="68"/>
+      <c r="BE5" s="68"/>
+      <c r="BF5" s="69"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="70"/>
-      <c r="AV6" s="70"/>
-      <c r="AW6" s="70"/>
-      <c r="AX6" s="70"/>
-      <c r="AY6" s="70"/>
-      <c r="AZ6" s="70"/>
-      <c r="BA6" s="70"/>
-      <c r="BB6" s="70"/>
-      <c r="BC6" s="70"/>
-      <c r="BD6" s="70"/>
-      <c r="BE6" s="70"/>
-      <c r="BF6" s="71"/>
+      <c r="AO6" s="67"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="61"/>
+      <c r="AR6" s="61"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="68"/>
+      <c r="AV6" s="68"/>
+      <c r="AW6" s="68"/>
+      <c r="AX6" s="68"/>
+      <c r="AY6" s="68"/>
+      <c r="AZ6" s="68"/>
+      <c r="BA6" s="68"/>
+      <c r="BB6" s="68"/>
+      <c r="BC6" s="68"/>
+      <c r="BD6" s="68"/>
+      <c r="BE6" s="68"/>
+      <c r="BF6" s="69"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="69" t="s">
+      <c r="AO7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
-      <c r="AU7" s="70" t="s">
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="AV7" s="70"/>
-      <c r="AW7" s="70"/>
-      <c r="AX7" s="70"/>
-      <c r="AY7" s="70"/>
-      <c r="AZ7" s="70"/>
-      <c r="BA7" s="70"/>
-      <c r="BB7" s="70"/>
-      <c r="BC7" s="70"/>
-      <c r="BD7" s="70"/>
-      <c r="BE7" s="70"/>
-      <c r="BF7" s="71"/>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68"/>
+      <c r="BF7" s="69"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="59"/>
-      <c r="AQ8" s="59"/>
-      <c r="AR8" s="59"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="59"/>
-      <c r="AU8" s="70"/>
-      <c r="AV8" s="70"/>
-      <c r="AW8" s="70"/>
-      <c r="AX8" s="70"/>
-      <c r="AY8" s="70"/>
-      <c r="AZ8" s="70"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="70"/>
-      <c r="BC8" s="70"/>
-      <c r="BD8" s="70"/>
-      <c r="BE8" s="70"/>
-      <c r="BF8" s="71"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="61"/>
+      <c r="AQ8" s="61"/>
+      <c r="AR8" s="61"/>
+      <c r="AS8" s="61"/>
+      <c r="AT8" s="61"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="68"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="68"/>
+      <c r="BE8" s="68"/>
+      <c r="BF8" s="69"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="69" t="s">
+      <c r="AO9" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="AP9" s="59"/>
-      <c r="AQ9" s="59"/>
-      <c r="AR9" s="59"/>
-      <c r="AS9" s="59"/>
-      <c r="AT9" s="59"/>
-      <c r="AU9" s="70" t="s">
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="61"/>
+      <c r="AR9" s="61"/>
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="AV9" s="70"/>
-      <c r="AW9" s="70"/>
-      <c r="AX9" s="70"/>
-      <c r="AY9" s="70"/>
-      <c r="AZ9" s="70"/>
-      <c r="BA9" s="70"/>
-      <c r="BB9" s="70"/>
-      <c r="BC9" s="70"/>
-      <c r="BD9" s="70"/>
-      <c r="BE9" s="70"/>
-      <c r="BF9" s="71"/>
+      <c r="AV9" s="68"/>
+      <c r="AW9" s="68"/>
+      <c r="AX9" s="68"/>
+      <c r="AY9" s="68"/>
+      <c r="AZ9" s="68"/>
+      <c r="BA9" s="68"/>
+      <c r="BB9" s="68"/>
+      <c r="BC9" s="68"/>
+      <c r="BD9" s="68"/>
+      <c r="BE9" s="68"/>
+      <c r="BF9" s="69"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="59"/>
-      <c r="AS10" s="59"/>
-      <c r="AT10" s="59"/>
-      <c r="AU10" s="70"/>
-      <c r="AV10" s="70"/>
-      <c r="AW10" s="70"/>
-      <c r="AX10" s="70"/>
-      <c r="AY10" s="70"/>
-      <c r="AZ10" s="70"/>
-      <c r="BA10" s="70"/>
-      <c r="BB10" s="70"/>
-      <c r="BC10" s="70"/>
-      <c r="BD10" s="70"/>
-      <c r="BE10" s="70"/>
-      <c r="BF10" s="71"/>
+      <c r="AO10" s="67"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="68"/>
+      <c r="AV10" s="68"/>
+      <c r="AW10" s="68"/>
+      <c r="AX10" s="68"/>
+      <c r="AY10" s="68"/>
+      <c r="AZ10" s="68"/>
+      <c r="BA10" s="68"/>
+      <c r="BB10" s="68"/>
+      <c r="BC10" s="68"/>
+      <c r="BD10" s="68"/>
+      <c r="BE10" s="68"/>
+      <c r="BF10" s="69"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="69" t="s">
+      <c r="AO11" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="AP11" s="59"/>
-      <c r="AQ11" s="59"/>
-      <c r="AR11" s="59"/>
-      <c r="AS11" s="59"/>
-      <c r="AT11" s="59"/>
-      <c r="AU11" s="70" t="s">
+      <c r="AP11" s="61"/>
+      <c r="AQ11" s="61"/>
+      <c r="AR11" s="61"/>
+      <c r="AS11" s="61"/>
+      <c r="AT11" s="61"/>
+      <c r="AU11" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="AV11" s="70"/>
-      <c r="AW11" s="70"/>
-      <c r="AX11" s="70"/>
-      <c r="AY11" s="70"/>
-      <c r="AZ11" s="70"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="70"/>
-      <c r="BC11" s="70"/>
-      <c r="BD11" s="70"/>
-      <c r="BE11" s="70"/>
-      <c r="BF11" s="71"/>
+      <c r="AV11" s="68"/>
+      <c r="AW11" s="68"/>
+      <c r="AX11" s="68"/>
+      <c r="AY11" s="68"/>
+      <c r="AZ11" s="68"/>
+      <c r="BA11" s="68"/>
+      <c r="BB11" s="68"/>
+      <c r="BC11" s="68"/>
+      <c r="BD11" s="68"/>
+      <c r="BE11" s="68"/>
+      <c r="BF11" s="69"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="70"/>
-      <c r="AV12" s="70"/>
-      <c r="AW12" s="70"/>
-      <c r="AX12" s="70"/>
-      <c r="AY12" s="70"/>
-      <c r="AZ12" s="70"/>
-      <c r="BA12" s="70"/>
-      <c r="BB12" s="70"/>
-      <c r="BC12" s="70"/>
-      <c r="BD12" s="70"/>
-      <c r="BE12" s="70"/>
-      <c r="BF12" s="71"/>
+      <c r="AO12" s="67"/>
+      <c r="AP12" s="61"/>
+      <c r="AQ12" s="61"/>
+      <c r="AR12" s="61"/>
+      <c r="AS12" s="61"/>
+      <c r="AT12" s="61"/>
+      <c r="AU12" s="68"/>
+      <c r="AV12" s="68"/>
+      <c r="AW12" s="68"/>
+      <c r="AX12" s="68"/>
+      <c r="AY12" s="68"/>
+      <c r="AZ12" s="68"/>
+      <c r="BA12" s="68"/>
+      <c r="BB12" s="68"/>
+      <c r="BC12" s="68"/>
+      <c r="BD12" s="68"/>
+      <c r="BE12" s="68"/>
+      <c r="BF12" s="69"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="69" t="s">
+      <c r="AO13" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="70" t="s">
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="61"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="61"/>
+      <c r="AU13" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="AV13" s="70"/>
-      <c r="AW13" s="70"/>
-      <c r="AX13" s="70"/>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="70"/>
-      <c r="BA13" s="70"/>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="70"/>
-      <c r="BD13" s="70"/>
-      <c r="BE13" s="70"/>
-      <c r="BF13" s="71"/>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="68"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="68"/>
+      <c r="BC13" s="68"/>
+      <c r="BD13" s="68"/>
+      <c r="BE13" s="68"/>
+      <c r="BF13" s="69"/>
     </row>
     <row r="14" spans="1:58">
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="69"/>
-      <c r="AP14" s="59"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="59"/>
-      <c r="AS14" s="59"/>
-      <c r="AT14" s="59"/>
-      <c r="AU14" s="70"/>
-      <c r="AV14" s="70"/>
-      <c r="AW14" s="70"/>
-      <c r="AX14" s="70"/>
-      <c r="AY14" s="70"/>
-      <c r="AZ14" s="70"/>
-      <c r="BA14" s="70"/>
-      <c r="BB14" s="70"/>
-      <c r="BC14" s="70"/>
-      <c r="BD14" s="70"/>
-      <c r="BE14" s="70"/>
-      <c r="BF14" s="71"/>
+      <c r="AO14" s="67"/>
+      <c r="AP14" s="61"/>
+      <c r="AQ14" s="61"/>
+      <c r="AR14" s="61"/>
+      <c r="AS14" s="61"/>
+      <c r="AT14" s="61"/>
+      <c r="AU14" s="68"/>
+      <c r="AV14" s="68"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="68"/>
+      <c r="AZ14" s="68"/>
+      <c r="BA14" s="68"/>
+      <c r="BB14" s="68"/>
+      <c r="BC14" s="68"/>
+      <c r="BD14" s="68"/>
+      <c r="BE14" s="68"/>
+      <c r="BF14" s="69"/>
     </row>
     <row r="15" spans="1:58">
       <c r="A15" s="2"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="69" t="s">
+      <c r="AO15" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="AP15" s="59"/>
-      <c r="AQ15" s="59"/>
-      <c r="AR15" s="59"/>
-      <c r="AS15" s="59"/>
-      <c r="AT15" s="59"/>
-      <c r="AU15" s="70" t="s">
+      <c r="AP15" s="61"/>
+      <c r="AQ15" s="61"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="61"/>
+      <c r="AT15" s="61"/>
+      <c r="AU15" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="AV15" s="70"/>
-      <c r="AW15" s="70"/>
-      <c r="AX15" s="70"/>
-      <c r="AY15" s="70"/>
-      <c r="AZ15" s="70"/>
-      <c r="BA15" s="70"/>
-      <c r="BB15" s="70"/>
-      <c r="BC15" s="70"/>
-      <c r="BD15" s="70"/>
-      <c r="BE15" s="70"/>
-      <c r="BF15" s="71"/>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="68"/>
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="68"/>
+      <c r="BC15" s="68"/>
+      <c r="BD15" s="68"/>
+      <c r="BE15" s="68"/>
+      <c r="BF15" s="69"/>
     </row>
     <row r="16" spans="1:58">
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="59"/>
-      <c r="AQ16" s="59"/>
-      <c r="AR16" s="59"/>
-      <c r="AS16" s="59"/>
-      <c r="AT16" s="59"/>
-      <c r="AU16" s="70"/>
-      <c r="AV16" s="70"/>
-      <c r="AW16" s="70"/>
-      <c r="AX16" s="70"/>
-      <c r="AY16" s="70"/>
-      <c r="AZ16" s="70"/>
-      <c r="BA16" s="70"/>
-      <c r="BB16" s="70"/>
-      <c r="BC16" s="70"/>
-      <c r="BD16" s="70"/>
-      <c r="BE16" s="70"/>
-      <c r="BF16" s="71"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="61"/>
+      <c r="AQ16" s="61"/>
+      <c r="AR16" s="61"/>
+      <c r="AS16" s="61"/>
+      <c r="AT16" s="61"/>
+      <c r="AU16" s="68"/>
+      <c r="AV16" s="68"/>
+      <c r="AW16" s="68"/>
+      <c r="AX16" s="68"/>
+      <c r="AY16" s="68"/>
+      <c r="AZ16" s="68"/>
+      <c r="BA16" s="68"/>
+      <c r="BB16" s="68"/>
+      <c r="BC16" s="68"/>
+      <c r="BD16" s="68"/>
+      <c r="BE16" s="68"/>
+      <c r="BF16" s="69"/>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="69" t="s">
+      <c r="AO17" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="AP17" s="59"/>
-      <c r="AQ17" s="59"/>
-      <c r="AR17" s="59"/>
-      <c r="AS17" s="59"/>
-      <c r="AT17" s="59"/>
-      <c r="AU17" s="70" t="s">
+      <c r="AP17" s="61"/>
+      <c r="AQ17" s="61"/>
+      <c r="AR17" s="61"/>
+      <c r="AS17" s="61"/>
+      <c r="AT17" s="61"/>
+      <c r="AU17" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="AV17" s="70"/>
-      <c r="AW17" s="70"/>
-      <c r="AX17" s="70"/>
-      <c r="AY17" s="70"/>
-      <c r="AZ17" s="70"/>
-      <c r="BA17" s="70"/>
-      <c r="BB17" s="70"/>
-      <c r="BC17" s="70"/>
-      <c r="BD17" s="70"/>
-      <c r="BE17" s="70"/>
-      <c r="BF17" s="71"/>
+      <c r="AV17" s="68"/>
+      <c r="AW17" s="68"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="68"/>
+      <c r="AZ17" s="68"/>
+      <c r="BA17" s="68"/>
+      <c r="BB17" s="68"/>
+      <c r="BC17" s="68"/>
+      <c r="BD17" s="68"/>
+      <c r="BE17" s="68"/>
+      <c r="BF17" s="69"/>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="59"/>
-      <c r="AS18" s="59"/>
-      <c r="AT18" s="59"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="70"/>
-      <c r="AW18" s="70"/>
-      <c r="AX18" s="70"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="70"/>
-      <c r="BC18" s="70"/>
-      <c r="BD18" s="70"/>
-      <c r="BE18" s="70"/>
-      <c r="BF18" s="71"/>
+      <c r="AO18" s="67"/>
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="61"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="68"/>
+      <c r="AV18" s="68"/>
+      <c r="AW18" s="68"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="68"/>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="68"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="68"/>
+      <c r="BD18" s="68"/>
+      <c r="BE18" s="68"/>
+      <c r="BF18" s="69"/>
     </row>
     <row r="19" spans="1:58" ht="11.25" customHeight="1">
       <c r="A19" s="2"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="69" t="s">
+      <c r="AO19" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="59"/>
-      <c r="AS19" s="59"/>
-      <c r="AT19" s="59"/>
-      <c r="AU19" s="70" t="s">
+      <c r="AP19" s="61"/>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="61"/>
+      <c r="AS19" s="61"/>
+      <c r="AT19" s="61"/>
+      <c r="AU19" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="AV19" s="70"/>
-      <c r="AW19" s="70"/>
-      <c r="AX19" s="70"/>
-      <c r="AY19" s="70"/>
-      <c r="AZ19" s="70"/>
-      <c r="BA19" s="70"/>
-      <c r="BB19" s="70"/>
-      <c r="BC19" s="70"/>
-      <c r="BD19" s="70"/>
-      <c r="BE19" s="70"/>
-      <c r="BF19" s="71"/>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="68"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
+      <c r="BB19" s="68"/>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="69"/>
     </row>
     <row r="20" spans="1:58">
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="69"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="59"/>
-      <c r="AS20" s="59"/>
-      <c r="AT20" s="59"/>
-      <c r="AU20" s="70"/>
-      <c r="AV20" s="70"/>
-      <c r="AW20" s="70"/>
-      <c r="AX20" s="70"/>
-      <c r="AY20" s="70"/>
-      <c r="AZ20" s="70"/>
-      <c r="BA20" s="70"/>
-      <c r="BB20" s="70"/>
-      <c r="BC20" s="70"/>
-      <c r="BD20" s="70"/>
-      <c r="BE20" s="70"/>
-      <c r="BF20" s="71"/>
+      <c r="AO20" s="67"/>
+      <c r="AP20" s="61"/>
+      <c r="AQ20" s="61"/>
+      <c r="AR20" s="61"/>
+      <c r="AS20" s="61"/>
+      <c r="AT20" s="61"/>
+      <c r="AU20" s="68"/>
+      <c r="AV20" s="68"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="68"/>
+      <c r="AZ20" s="68"/>
+      <c r="BA20" s="68"/>
+      <c r="BB20" s="68"/>
+      <c r="BC20" s="68"/>
+      <c r="BD20" s="68"/>
+      <c r="BE20" s="68"/>
+      <c r="BF20" s="69"/>
     </row>
     <row r="21" spans="1:58">
       <c r="A21" s="2"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="69" t="s">
+      <c r="AO21" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="70" t="s">
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="61"/>
+      <c r="AT21" s="61"/>
+      <c r="AU21" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="AV21" s="70"/>
-      <c r="AW21" s="70"/>
-      <c r="AX21" s="70"/>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="70"/>
-      <c r="BA21" s="70"/>
-      <c r="BB21" s="70"/>
-      <c r="BC21" s="70"/>
-      <c r="BD21" s="70"/>
-      <c r="BE21" s="70"/>
-      <c r="BF21" s="71"/>
+      <c r="AV21" s="68"/>
+      <c r="AW21" s="68"/>
+      <c r="AX21" s="68"/>
+      <c r="AY21" s="68"/>
+      <c r="AZ21" s="68"/>
+      <c r="BA21" s="68"/>
+      <c r="BB21" s="68"/>
+      <c r="BC21" s="68"/>
+      <c r="BD21" s="68"/>
+      <c r="BE21" s="68"/>
+      <c r="BF21" s="69"/>
     </row>
     <row r="22" spans="1:58">
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="69"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="59"/>
-      <c r="AT22" s="59"/>
-      <c r="AU22" s="70"/>
-      <c r="AV22" s="70"/>
-      <c r="AW22" s="70"/>
-      <c r="AX22" s="70"/>
-      <c r="AY22" s="70"/>
-      <c r="AZ22" s="70"/>
-      <c r="BA22" s="70"/>
-      <c r="BB22" s="70"/>
-      <c r="BC22" s="70"/>
-      <c r="BD22" s="70"/>
-      <c r="BE22" s="70"/>
-      <c r="BF22" s="71"/>
+      <c r="AO22" s="67"/>
+      <c r="AP22" s="61"/>
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="61"/>
+      <c r="AS22" s="61"/>
+      <c r="AT22" s="61"/>
+      <c r="AU22" s="68"/>
+      <c r="AV22" s="68"/>
+      <c r="AW22" s="68"/>
+      <c r="AX22" s="68"/>
+      <c r="AY22" s="68"/>
+      <c r="AZ22" s="68"/>
+      <c r="BA22" s="68"/>
+      <c r="BB22" s="68"/>
+      <c r="BC22" s="68"/>
+      <c r="BD22" s="68"/>
+      <c r="BE22" s="68"/>
+      <c r="BF22" s="69"/>
     </row>
     <row r="23" spans="1:58">
       <c r="A23" s="2"/>
@@ -3865,382 +3910,382 @@
     <row r="24" spans="1:58">
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="69" t="s">
+      <c r="AO24" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="59"/>
-      <c r="AS24" s="59"/>
-      <c r="AT24" s="59"/>
-      <c r="AU24" s="70" t="s">
+      <c r="AP24" s="61"/>
+      <c r="AQ24" s="61"/>
+      <c r="AR24" s="61"/>
+      <c r="AS24" s="61"/>
+      <c r="AT24" s="61"/>
+      <c r="AU24" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="AV24" s="70"/>
-      <c r="AW24" s="70"/>
-      <c r="AX24" s="70"/>
-      <c r="AY24" s="70"/>
-      <c r="AZ24" s="70"/>
-      <c r="BA24" s="70"/>
-      <c r="BB24" s="70"/>
-      <c r="BC24" s="70"/>
-      <c r="BD24" s="70"/>
-      <c r="BE24" s="70"/>
-      <c r="BF24" s="71"/>
+      <c r="AV24" s="68"/>
+      <c r="AW24" s="68"/>
+      <c r="AX24" s="68"/>
+      <c r="AY24" s="68"/>
+      <c r="AZ24" s="68"/>
+      <c r="BA24" s="68"/>
+      <c r="BB24" s="68"/>
+      <c r="BC24" s="68"/>
+      <c r="BD24" s="68"/>
+      <c r="BE24" s="68"/>
+      <c r="BF24" s="69"/>
     </row>
     <row r="25" spans="1:58">
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="69"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="59"/>
-      <c r="AS25" s="59"/>
-      <c r="AT25" s="59"/>
-      <c r="AU25" s="70"/>
-      <c r="AV25" s="70"/>
-      <c r="AW25" s="70"/>
-      <c r="AX25" s="70"/>
-      <c r="AY25" s="70"/>
-      <c r="AZ25" s="70"/>
-      <c r="BA25" s="70"/>
-      <c r="BB25" s="70"/>
-      <c r="BC25" s="70"/>
-      <c r="BD25" s="70"/>
-      <c r="BE25" s="70"/>
-      <c r="BF25" s="71"/>
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="61"/>
+      <c r="AQ25" s="61"/>
+      <c r="AR25" s="61"/>
+      <c r="AS25" s="61"/>
+      <c r="AT25" s="61"/>
+      <c r="AU25" s="68"/>
+      <c r="AV25" s="68"/>
+      <c r="AW25" s="68"/>
+      <c r="AX25" s="68"/>
+      <c r="AY25" s="68"/>
+      <c r="AZ25" s="68"/>
+      <c r="BA25" s="68"/>
+      <c r="BB25" s="68"/>
+      <c r="BC25" s="68"/>
+      <c r="BD25" s="68"/>
+      <c r="BE25" s="68"/>
+      <c r="BF25" s="69"/>
     </row>
     <row r="26" spans="1:58">
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="69" t="s">
+      <c r="AO26" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="59"/>
-      <c r="AU26" s="70" t="s">
+      <c r="AP26" s="61"/>
+      <c r="AQ26" s="61"/>
+      <c r="AR26" s="61"/>
+      <c r="AS26" s="61"/>
+      <c r="AT26" s="61"/>
+      <c r="AU26" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="AV26" s="70"/>
-      <c r="AW26" s="70"/>
-      <c r="AX26" s="70"/>
-      <c r="AY26" s="70"/>
-      <c r="AZ26" s="70"/>
-      <c r="BA26" s="70"/>
-      <c r="BB26" s="70"/>
-      <c r="BC26" s="70"/>
-      <c r="BD26" s="70"/>
-      <c r="BE26" s="70"/>
-      <c r="BF26" s="71"/>
+      <c r="AV26" s="68"/>
+      <c r="AW26" s="68"/>
+      <c r="AX26" s="68"/>
+      <c r="AY26" s="68"/>
+      <c r="AZ26" s="68"/>
+      <c r="BA26" s="68"/>
+      <c r="BB26" s="68"/>
+      <c r="BC26" s="68"/>
+      <c r="BD26" s="68"/>
+      <c r="BE26" s="68"/>
+      <c r="BF26" s="69"/>
     </row>
     <row r="27" spans="1:58">
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="69"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="59"/>
-      <c r="AU27" s="70"/>
-      <c r="AV27" s="70"/>
-      <c r="AW27" s="70"/>
-      <c r="AX27" s="70"/>
-      <c r="AY27" s="70"/>
-      <c r="AZ27" s="70"/>
-      <c r="BA27" s="70"/>
-      <c r="BB27" s="70"/>
-      <c r="BC27" s="70"/>
-      <c r="BD27" s="70"/>
-      <c r="BE27" s="70"/>
-      <c r="BF27" s="71"/>
+      <c r="AO27" s="67"/>
+      <c r="AP27" s="61"/>
+      <c r="AQ27" s="61"/>
+      <c r="AR27" s="61"/>
+      <c r="AS27" s="61"/>
+      <c r="AT27" s="61"/>
+      <c r="AU27" s="68"/>
+      <c r="AV27" s="68"/>
+      <c r="AW27" s="68"/>
+      <c r="AX27" s="68"/>
+      <c r="AY27" s="68"/>
+      <c r="AZ27" s="68"/>
+      <c r="BA27" s="68"/>
+      <c r="BB27" s="68"/>
+      <c r="BC27" s="68"/>
+      <c r="BD27" s="68"/>
+      <c r="BE27" s="68"/>
+      <c r="BF27" s="69"/>
     </row>
     <row r="28" spans="1:58">
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
-      <c r="AO28" s="69" t="s">
+      <c r="AO28" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="AP28" s="59"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="59"/>
-      <c r="AS28" s="59"/>
-      <c r="AT28" s="59"/>
-      <c r="AU28" s="70" t="s">
+      <c r="AP28" s="61"/>
+      <c r="AQ28" s="61"/>
+      <c r="AR28" s="61"/>
+      <c r="AS28" s="61"/>
+      <c r="AT28" s="61"/>
+      <c r="AU28" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="AV28" s="70"/>
-      <c r="AW28" s="70"/>
-      <c r="AX28" s="70"/>
-      <c r="AY28" s="70"/>
-      <c r="AZ28" s="70"/>
-      <c r="BA28" s="70"/>
-      <c r="BB28" s="70"/>
-      <c r="BC28" s="70"/>
-      <c r="BD28" s="70"/>
-      <c r="BE28" s="70"/>
-      <c r="BF28" s="71"/>
+      <c r="AV28" s="68"/>
+      <c r="AW28" s="68"/>
+      <c r="AX28" s="68"/>
+      <c r="AY28" s="68"/>
+      <c r="AZ28" s="68"/>
+      <c r="BA28" s="68"/>
+      <c r="BB28" s="68"/>
+      <c r="BC28" s="68"/>
+      <c r="BD28" s="68"/>
+      <c r="BE28" s="68"/>
+      <c r="BF28" s="69"/>
     </row>
     <row r="29" spans="1:58">
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
-      <c r="AO29" s="69"/>
-      <c r="AP29" s="59"/>
-      <c r="AQ29" s="59"/>
-      <c r="AR29" s="59"/>
-      <c r="AS29" s="59"/>
-      <c r="AT29" s="59"/>
-      <c r="AU29" s="70"/>
-      <c r="AV29" s="70"/>
-      <c r="AW29" s="70"/>
-      <c r="AX29" s="70"/>
-      <c r="AY29" s="70"/>
-      <c r="AZ29" s="70"/>
-      <c r="BA29" s="70"/>
-      <c r="BB29" s="70"/>
-      <c r="BC29" s="70"/>
-      <c r="BD29" s="70"/>
-      <c r="BE29" s="70"/>
-      <c r="BF29" s="71"/>
+      <c r="AO29" s="67"/>
+      <c r="AP29" s="61"/>
+      <c r="AQ29" s="61"/>
+      <c r="AR29" s="61"/>
+      <c r="AS29" s="61"/>
+      <c r="AT29" s="61"/>
+      <c r="AU29" s="68"/>
+      <c r="AV29" s="68"/>
+      <c r="AW29" s="68"/>
+      <c r="AX29" s="68"/>
+      <c r="AY29" s="68"/>
+      <c r="AZ29" s="68"/>
+      <c r="BA29" s="68"/>
+      <c r="BB29" s="68"/>
+      <c r="BC29" s="68"/>
+      <c r="BD29" s="68"/>
+      <c r="BE29" s="68"/>
+      <c r="BF29" s="69"/>
     </row>
     <row r="30" spans="1:58">
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
-      <c r="AO30" s="69" t="s">
+      <c r="AO30" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="AP30" s="59"/>
-      <c r="AQ30" s="59"/>
-      <c r="AR30" s="59"/>
-      <c r="AS30" s="59"/>
-      <c r="AT30" s="59"/>
-      <c r="AU30" s="70" t="s">
+      <c r="AP30" s="61"/>
+      <c r="AQ30" s="61"/>
+      <c r="AR30" s="61"/>
+      <c r="AS30" s="61"/>
+      <c r="AT30" s="61"/>
+      <c r="AU30" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="AV30" s="70"/>
-      <c r="AW30" s="70"/>
-      <c r="AX30" s="70"/>
-      <c r="AY30" s="70"/>
-      <c r="AZ30" s="70"/>
-      <c r="BA30" s="70"/>
-      <c r="BB30" s="70"/>
-      <c r="BC30" s="70"/>
-      <c r="BD30" s="70"/>
-      <c r="BE30" s="70"/>
-      <c r="BF30" s="71"/>
+      <c r="AV30" s="68"/>
+      <c r="AW30" s="68"/>
+      <c r="AX30" s="68"/>
+      <c r="AY30" s="68"/>
+      <c r="AZ30" s="68"/>
+      <c r="BA30" s="68"/>
+      <c r="BB30" s="68"/>
+      <c r="BC30" s="68"/>
+      <c r="BD30" s="68"/>
+      <c r="BE30" s="68"/>
+      <c r="BF30" s="69"/>
     </row>
     <row r="31" spans="1:58">
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
-      <c r="AO31" s="69"/>
-      <c r="AP31" s="59"/>
-      <c r="AQ31" s="59"/>
-      <c r="AR31" s="59"/>
-      <c r="AS31" s="59"/>
-      <c r="AT31" s="59"/>
-      <c r="AU31" s="70"/>
-      <c r="AV31" s="70"/>
-      <c r="AW31" s="70"/>
-      <c r="AX31" s="70"/>
-      <c r="AY31" s="70"/>
-      <c r="AZ31" s="70"/>
-      <c r="BA31" s="70"/>
-      <c r="BB31" s="70"/>
-      <c r="BC31" s="70"/>
-      <c r="BD31" s="70"/>
-      <c r="BE31" s="70"/>
-      <c r="BF31" s="71"/>
+      <c r="AO31" s="67"/>
+      <c r="AP31" s="61"/>
+      <c r="AQ31" s="61"/>
+      <c r="AR31" s="61"/>
+      <c r="AS31" s="61"/>
+      <c r="AT31" s="61"/>
+      <c r="AU31" s="68"/>
+      <c r="AV31" s="68"/>
+      <c r="AW31" s="68"/>
+      <c r="AX31" s="68"/>
+      <c r="AY31" s="68"/>
+      <c r="AZ31" s="68"/>
+      <c r="BA31" s="68"/>
+      <c r="BB31" s="68"/>
+      <c r="BC31" s="68"/>
+      <c r="BD31" s="68"/>
+      <c r="BE31" s="68"/>
+      <c r="BF31" s="69"/>
     </row>
     <row r="32" spans="1:58">
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
-      <c r="AO32" s="69" t="s">
+      <c r="AO32" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="AP32" s="59"/>
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="59"/>
-      <c r="AS32" s="59"/>
-      <c r="AT32" s="59"/>
-      <c r="AU32" s="70" t="s">
+      <c r="AP32" s="61"/>
+      <c r="AQ32" s="61"/>
+      <c r="AR32" s="61"/>
+      <c r="AS32" s="61"/>
+      <c r="AT32" s="61"/>
+      <c r="AU32" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="AV32" s="70"/>
-      <c r="AW32" s="70"/>
-      <c r="AX32" s="70"/>
-      <c r="AY32" s="70"/>
-      <c r="AZ32" s="70"/>
-      <c r="BA32" s="70"/>
-      <c r="BB32" s="70"/>
-      <c r="BC32" s="70"/>
-      <c r="BD32" s="70"/>
-      <c r="BE32" s="70"/>
-      <c r="BF32" s="71"/>
+      <c r="AV32" s="68"/>
+      <c r="AW32" s="68"/>
+      <c r="AX32" s="68"/>
+      <c r="AY32" s="68"/>
+      <c r="AZ32" s="68"/>
+      <c r="BA32" s="68"/>
+      <c r="BB32" s="68"/>
+      <c r="BC32" s="68"/>
+      <c r="BD32" s="68"/>
+      <c r="BE32" s="68"/>
+      <c r="BF32" s="69"/>
     </row>
     <row r="33" spans="1:58">
       <c r="A33" s="2"/>
       <c r="AN33" s="3"/>
-      <c r="AO33" s="69"/>
-      <c r="AP33" s="59"/>
-      <c r="AQ33" s="59"/>
-      <c r="AR33" s="59"/>
-      <c r="AS33" s="59"/>
-      <c r="AT33" s="59"/>
-      <c r="AU33" s="70"/>
-      <c r="AV33" s="70"/>
-      <c r="AW33" s="70"/>
-      <c r="AX33" s="70"/>
-      <c r="AY33" s="70"/>
-      <c r="AZ33" s="70"/>
-      <c r="BA33" s="70"/>
-      <c r="BB33" s="70"/>
-      <c r="BC33" s="70"/>
-      <c r="BD33" s="70"/>
-      <c r="BE33" s="70"/>
-      <c r="BF33" s="71"/>
+      <c r="AO33" s="67"/>
+      <c r="AP33" s="61"/>
+      <c r="AQ33" s="61"/>
+      <c r="AR33" s="61"/>
+      <c r="AS33" s="61"/>
+      <c r="AT33" s="61"/>
+      <c r="AU33" s="68"/>
+      <c r="AV33" s="68"/>
+      <c r="AW33" s="68"/>
+      <c r="AX33" s="68"/>
+      <c r="AY33" s="68"/>
+      <c r="AZ33" s="68"/>
+      <c r="BA33" s="68"/>
+      <c r="BB33" s="68"/>
+      <c r="BC33" s="68"/>
+      <c r="BD33" s="68"/>
+      <c r="BE33" s="68"/>
+      <c r="BF33" s="69"/>
     </row>
     <row r="34" spans="1:58">
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
-      <c r="AO34" s="69" t="s">
+      <c r="AO34" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="AP34" s="59"/>
-      <c r="AQ34" s="59"/>
-      <c r="AR34" s="59"/>
-      <c r="AS34" s="59"/>
-      <c r="AT34" s="59"/>
-      <c r="AU34" s="70" t="s">
+      <c r="AP34" s="61"/>
+      <c r="AQ34" s="61"/>
+      <c r="AR34" s="61"/>
+      <c r="AS34" s="61"/>
+      <c r="AT34" s="61"/>
+      <c r="AU34" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="AV34" s="70"/>
-      <c r="AW34" s="70"/>
-      <c r="AX34" s="70"/>
-      <c r="AY34" s="70"/>
-      <c r="AZ34" s="70"/>
-      <c r="BA34" s="70"/>
-      <c r="BB34" s="70"/>
-      <c r="BC34" s="70"/>
-      <c r="BD34" s="70"/>
-      <c r="BE34" s="70"/>
-      <c r="BF34" s="71"/>
+      <c r="AV34" s="68"/>
+      <c r="AW34" s="68"/>
+      <c r="AX34" s="68"/>
+      <c r="AY34" s="68"/>
+      <c r="AZ34" s="68"/>
+      <c r="BA34" s="68"/>
+      <c r="BB34" s="68"/>
+      <c r="BC34" s="68"/>
+      <c r="BD34" s="68"/>
+      <c r="BE34" s="68"/>
+      <c r="BF34" s="69"/>
     </row>
     <row r="35" spans="1:58">
       <c r="A35" s="2"/>
       <c r="AN35" s="3"/>
-      <c r="AO35" s="69"/>
-      <c r="AP35" s="59"/>
-      <c r="AQ35" s="59"/>
-      <c r="AR35" s="59"/>
-      <c r="AS35" s="59"/>
-      <c r="AT35" s="59"/>
-      <c r="AU35" s="70"/>
-      <c r="AV35" s="70"/>
-      <c r="AW35" s="70"/>
-      <c r="AX35" s="70"/>
-      <c r="AY35" s="70"/>
-      <c r="AZ35" s="70"/>
-      <c r="BA35" s="70"/>
-      <c r="BB35" s="70"/>
-      <c r="BC35" s="70"/>
-      <c r="BD35" s="70"/>
-      <c r="BE35" s="70"/>
-      <c r="BF35" s="71"/>
+      <c r="AO35" s="67"/>
+      <c r="AP35" s="61"/>
+      <c r="AQ35" s="61"/>
+      <c r="AR35" s="61"/>
+      <c r="AS35" s="61"/>
+      <c r="AT35" s="61"/>
+      <c r="AU35" s="68"/>
+      <c r="AV35" s="68"/>
+      <c r="AW35" s="68"/>
+      <c r="AX35" s="68"/>
+      <c r="AY35" s="68"/>
+      <c r="AZ35" s="68"/>
+      <c r="BA35" s="68"/>
+      <c r="BB35" s="68"/>
+      <c r="BC35" s="68"/>
+      <c r="BD35" s="68"/>
+      <c r="BE35" s="68"/>
+      <c r="BF35" s="69"/>
     </row>
     <row r="36" spans="1:58">
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
-      <c r="AO36" s="69" t="s">
+      <c r="AO36" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="AP36" s="59"/>
-      <c r="AQ36" s="59"/>
-      <c r="AR36" s="59"/>
-      <c r="AS36" s="59"/>
-      <c r="AT36" s="59"/>
-      <c r="AU36" s="70" t="s">
+      <c r="AP36" s="61"/>
+      <c r="AQ36" s="61"/>
+      <c r="AR36" s="61"/>
+      <c r="AS36" s="61"/>
+      <c r="AT36" s="61"/>
+      <c r="AU36" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="AV36" s="70"/>
-      <c r="AW36" s="70"/>
-      <c r="AX36" s="70"/>
-      <c r="AY36" s="70"/>
-      <c r="AZ36" s="70"/>
-      <c r="BA36" s="70"/>
-      <c r="BB36" s="70"/>
-      <c r="BC36" s="70"/>
-      <c r="BD36" s="70"/>
-      <c r="BE36" s="70"/>
-      <c r="BF36" s="71"/>
+      <c r="AV36" s="68"/>
+      <c r="AW36" s="68"/>
+      <c r="AX36" s="68"/>
+      <c r="AY36" s="68"/>
+      <c r="AZ36" s="68"/>
+      <c r="BA36" s="68"/>
+      <c r="BB36" s="68"/>
+      <c r="BC36" s="68"/>
+      <c r="BD36" s="68"/>
+      <c r="BE36" s="68"/>
+      <c r="BF36" s="69"/>
     </row>
     <row r="37" spans="1:58">
       <c r="A37" s="2"/>
       <c r="AN37" s="3"/>
-      <c r="AO37" s="69"/>
-      <c r="AP37" s="59"/>
-      <c r="AQ37" s="59"/>
-      <c r="AR37" s="59"/>
-      <c r="AS37" s="59"/>
-      <c r="AT37" s="59"/>
-      <c r="AU37" s="70"/>
-      <c r="AV37" s="70"/>
-      <c r="AW37" s="70"/>
-      <c r="AX37" s="70"/>
-      <c r="AY37" s="70"/>
-      <c r="AZ37" s="70"/>
-      <c r="BA37" s="70"/>
-      <c r="BB37" s="70"/>
-      <c r="BC37" s="70"/>
-      <c r="BD37" s="70"/>
-      <c r="BE37" s="70"/>
-      <c r="BF37" s="71"/>
+      <c r="AO37" s="67"/>
+      <c r="AP37" s="61"/>
+      <c r="AQ37" s="61"/>
+      <c r="AR37" s="61"/>
+      <c r="AS37" s="61"/>
+      <c r="AT37" s="61"/>
+      <c r="AU37" s="68"/>
+      <c r="AV37" s="68"/>
+      <c r="AW37" s="68"/>
+      <c r="AX37" s="68"/>
+      <c r="AY37" s="68"/>
+      <c r="AZ37" s="68"/>
+      <c r="BA37" s="68"/>
+      <c r="BB37" s="68"/>
+      <c r="BC37" s="68"/>
+      <c r="BD37" s="68"/>
+      <c r="BE37" s="68"/>
+      <c r="BF37" s="69"/>
     </row>
     <row r="38" spans="1:58">
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
-      <c r="AO38" s="69"/>
-      <c r="AP38" s="59"/>
-      <c r="AQ38" s="59"/>
-      <c r="AR38" s="59"/>
-      <c r="AS38" s="59"/>
-      <c r="AT38" s="59"/>
-      <c r="AU38" s="70"/>
-      <c r="AV38" s="70"/>
-      <c r="AW38" s="70"/>
-      <c r="AX38" s="70"/>
-      <c r="AY38" s="70"/>
-      <c r="AZ38" s="70"/>
-      <c r="BA38" s="70"/>
-      <c r="BB38" s="70"/>
-      <c r="BC38" s="70"/>
-      <c r="BD38" s="70"/>
-      <c r="BE38" s="70"/>
-      <c r="BF38" s="71"/>
+      <c r="AO38" s="67"/>
+      <c r="AP38" s="61"/>
+      <c r="AQ38" s="61"/>
+      <c r="AR38" s="61"/>
+      <c r="AS38" s="61"/>
+      <c r="AT38" s="61"/>
+      <c r="AU38" s="68"/>
+      <c r="AV38" s="68"/>
+      <c r="AW38" s="68"/>
+      <c r="AX38" s="68"/>
+      <c r="AY38" s="68"/>
+      <c r="AZ38" s="68"/>
+      <c r="BA38" s="68"/>
+      <c r="BB38" s="68"/>
+      <c r="BC38" s="68"/>
+      <c r="BD38" s="68"/>
+      <c r="BE38" s="68"/>
+      <c r="BF38" s="69"/>
     </row>
     <row r="39" spans="1:58">
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
-      <c r="AO39" s="69"/>
-      <c r="AP39" s="59"/>
-      <c r="AQ39" s="59"/>
-      <c r="AR39" s="59"/>
-      <c r="AS39" s="59"/>
-      <c r="AT39" s="59"/>
-      <c r="AU39" s="70"/>
-      <c r="AV39" s="70"/>
-      <c r="AW39" s="70"/>
-      <c r="AX39" s="70"/>
-      <c r="AY39" s="70"/>
-      <c r="AZ39" s="70"/>
-      <c r="BA39" s="70"/>
-      <c r="BB39" s="70"/>
-      <c r="BC39" s="70"/>
-      <c r="BD39" s="70"/>
-      <c r="BE39" s="70"/>
-      <c r="BF39" s="71"/>
+      <c r="AO39" s="67"/>
+      <c r="AP39" s="61"/>
+      <c r="AQ39" s="61"/>
+      <c r="AR39" s="61"/>
+      <c r="AS39" s="61"/>
+      <c r="AT39" s="61"/>
+      <c r="AU39" s="68"/>
+      <c r="AV39" s="68"/>
+      <c r="AW39" s="68"/>
+      <c r="AX39" s="68"/>
+      <c r="AY39" s="68"/>
+      <c r="AZ39" s="68"/>
+      <c r="BA39" s="68"/>
+      <c r="BB39" s="68"/>
+      <c r="BC39" s="68"/>
+      <c r="BD39" s="68"/>
+      <c r="BE39" s="68"/>
+      <c r="BF39" s="69"/>
     </row>
     <row r="40" spans="1:58">
       <c r="A40" s="2"/>
@@ -4358,6 +4403,45 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AU15:BF16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AU17:BF18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AO24:AT25"/>
+    <mergeCell ref="AU24:BF25"/>
+    <mergeCell ref="AO26:AT27"/>
+    <mergeCell ref="AU26:BF27"/>
+    <mergeCell ref="AO28:AT29"/>
+    <mergeCell ref="AU28:BF29"/>
     <mergeCell ref="AO36:AT37"/>
     <mergeCell ref="AU36:BF37"/>
     <mergeCell ref="AO38:AT39"/>
@@ -4368,45 +4452,6 @@
     <mergeCell ref="AU32:BF33"/>
     <mergeCell ref="AO34:AT35"/>
     <mergeCell ref="AU34:BF35"/>
-    <mergeCell ref="AO24:AT25"/>
-    <mergeCell ref="AU24:BF25"/>
-    <mergeCell ref="AO26:AT27"/>
-    <mergeCell ref="AU26:BF27"/>
-    <mergeCell ref="AO28:AT29"/>
-    <mergeCell ref="AU28:BF29"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AU15:BF16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AU17:BF18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4422,8 +4467,8 @@
   </sheetPr>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4432,27 +4477,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="111" t="str">
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4467,24 +4512,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89" t="str">
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="94" t="str">
         <f>表紙!H15</f>
         <v>テナント</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -4499,42 +4544,42 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84" t="s">
+      <c r="D4" s="85"/>
+      <c r="E4" s="85" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84" t="s">
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="84"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="38" t="s">
         <v>45</v>
       </c>
@@ -4550,23 +4595,23 @@
       <c r="J5" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="85"/>
+      <c r="C6" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="84"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="40" t="s">
         <v>51</v>
       </c>
@@ -4575,25 +4620,25 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="92"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="84"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="40" t="s">
         <v>51</v>
       </c>
@@ -4602,25 +4647,25 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="92" t="s">
+      <c r="K7" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="40" t="s">
         <v>51</v>
       </c>
@@ -4629,25 +4674,25 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
-      <c r="K8" s="92" t="s">
+      <c r="K8" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="40" t="s">
         <v>51</v>
       </c>
@@ -4656,25 +4701,25 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
-      <c r="K9" s="92" t="s">
+      <c r="K9" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="84"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="40" t="s">
         <v>54</v>
       </c>
@@ -4689,25 +4734,25 @@
         <v>4</v>
       </c>
       <c r="J10" s="38"/>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="40" t="s">
         <v>54</v>
       </c>
@@ -4722,25 +4767,25 @@
         <v>20</v>
       </c>
       <c r="J11" s="38"/>
-      <c r="K11" s="92" t="s">
+      <c r="K11" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="85"/>
+      <c r="C12" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="84"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="40" t="s">
         <v>54</v>
       </c>
@@ -4751,25 +4796,25 @@
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="84"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="40" t="s">
         <v>41</v>
       </c>
@@ -4780,25 +4825,25 @@
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
-      <c r="K13" s="92" t="s">
+      <c r="K13" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84" t="s">
+      <c r="B14" s="85"/>
+      <c r="C14" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="40" t="s">
         <v>67</v>
       </c>
@@ -4807,25 +4852,25 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="92" t="s">
+      <c r="K14" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82" t="s">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="82"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="47" t="s">
         <v>41</v>
       </c>
@@ -4838,25 +4883,25 @@
       <c r="J15" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="K15" s="83" t="s">
+      <c r="K15" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="47" t="s">
         <v>41</v>
       </c>
@@ -4866,26 +4911,28 @@
         <v>86</v>
       </c>
       <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="83" t="s">
+      <c r="J16" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="47" t="s">
         <v>41</v>
       </c>
@@ -4898,52 +4945,56 @@
       <c r="J17" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="K17" s="83" t="s">
+      <c r="K17" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82" t="s">
+      <c r="B18" s="83"/>
+      <c r="C18" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="82"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="47" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
+      <c r="H18" s="48" t="s">
+        <v>86</v>
+      </c>
       <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="83" t="s">
+      <c r="J18" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82" t="s">
+      <c r="B19" s="83"/>
+      <c r="C19" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="82"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="47" t="s">
         <v>41</v>
       </c>
@@ -4956,25 +5007,25 @@
       <c r="J19" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="83" t="s">
+      <c r="K19" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="82"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="47" t="s">
         <v>41</v>
       </c>
@@ -4985,25 +5036,25 @@
       </c>
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
-      <c r="K20" s="83" t="s">
+      <c r="K20" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82" t="s">
+      <c r="B21" s="83"/>
+      <c r="C21" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="82"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="47" t="s">
         <v>41</v>
       </c>
@@ -5014,18 +5065,67 @@
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
-      <c r="K21" s="83" t="s">
+      <c r="K21" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="K15:Q15"/>
@@ -5035,55 +5135,6 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5109,27 +5160,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="86" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="111" t="str">
+      <c r="D1" s="89"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="93"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -5144,24 +5195,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86" t="s">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89" t="str">
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="94" t="str">
         <f>表紙!H15</f>
         <v>テナント</v>
       </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -5176,189 +5227,189 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="95"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="111"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="98"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="105"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="98"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="105"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="101"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="99"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="43"/>
       <c r="B9" s="44"/>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="101"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="99"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="43"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="98"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="105"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="98"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="105"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="45"/>
       <c r="B12" s="46"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="104"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="108"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="41" t="s">
@@ -5367,598 +5418,603 @@
       <c r="B13" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="95"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="111"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="43"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="98"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="105"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="99" t="s">
+      <c r="C15" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="101"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="99"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="106"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="107"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="102"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="101"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="99"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="101"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="99"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="101"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="99"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="43"/>
       <c r="B20" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="101"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="99"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="101"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="99"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="104"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="108"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="42"/>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="95"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="111"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="43"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="98"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="105"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="96" t="s">
+      <c r="C25" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="98"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="105"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="98"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="105"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="43"/>
       <c r="B27" s="44"/>
-      <c r="C27" s="96" t="s">
+      <c r="C27" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="98"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="105"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="43"/>
       <c r="B28" s="44"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="98"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="105"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="41" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="42"/>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="95"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="111"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="43"/>
       <c r="B30" s="44"/>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="98"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="105"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="43"/>
       <c r="B31" s="44"/>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="101"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="98"/>
+      <c r="Q31" s="99"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="45"/>
       <c r="B32" s="46"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="104"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="107"/>
+      <c r="P32" s="107"/>
+      <c r="Q32" s="108"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="42"/>
-      <c r="C33" s="93" t="s">
+      <c r="C33" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="95"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="111"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="43"/>
       <c r="B34" s="44"/>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="98"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="105"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="43"/>
       <c r="B35" s="44"/>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="98"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="105"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="43"/>
       <c r="B36" s="44"/>
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="98"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="105"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="45"/>
       <c r="B37" s="46"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="103"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="103"/>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="104"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="108"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="42"/>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="94"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="95"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="110"/>
+      <c r="O38" s="110"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="111"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="43"/>
       <c r="B39" s="44"/>
-      <c r="C39" s="96" t="s">
+      <c r="C39" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="97"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="97"/>
-      <c r="Q39" s="98"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="105"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="45"/>
       <c r="B40" s="46"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="103"/>
-      <c r="N40" s="103"/>
-      <c r="O40" s="103"/>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="104"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C19:Q19"/>
-    <mergeCell ref="C20:Q20"/>
-    <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="C17:Q17"/>
-    <mergeCell ref="C35:Q35"/>
-    <mergeCell ref="C37:Q37"/>
-    <mergeCell ref="C38:Q38"/>
-    <mergeCell ref="C39:Q39"/>
-    <mergeCell ref="C40:Q40"/>
-    <mergeCell ref="C36:Q36"/>
+    <mergeCell ref="C13:Q13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C8:Q8"/>
+    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="C12:Q12"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="C10:Q10"/>
     <mergeCell ref="C34:Q34"/>
     <mergeCell ref="C14:Q14"/>
     <mergeCell ref="C15:Q15"/>
@@ -5975,22 +6031,17 @@
     <mergeCell ref="C27:Q27"/>
     <mergeCell ref="C31:Q31"/>
     <mergeCell ref="C21:Q21"/>
-    <mergeCell ref="C13:Q13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C8:Q8"/>
-    <mergeCell ref="C9:Q9"/>
-    <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="C35:Q35"/>
+    <mergeCell ref="C37:Q37"/>
+    <mergeCell ref="C38:Q38"/>
+    <mergeCell ref="C39:Q39"/>
+    <mergeCell ref="C40:Q40"/>
+    <mergeCell ref="C36:Q36"/>
+    <mergeCell ref="C19:Q19"/>
+    <mergeCell ref="C20:Q20"/>
+    <mergeCell ref="C18:Q18"/>
+    <mergeCell ref="C16:Q16"/>
+    <mergeCell ref="C17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/市場_2025改修/詳細設計_2025/7_詳細設計書(テナント).xlsx
+++ b/市場_2025改修/詳細設計_2025/7_詳細設計書(テナント).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C4F9CE-CBCF-4CDB-BF81-27C223997637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CA12DD-7A7E-4E84-8E0C-DD8E80DE3F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="テナント" sheetId="173" r:id="rId3"/>
     <sheet name="項目説明" sheetId="171" r:id="rId4"/>
     <sheet name="プログラム機能" sheetId="172" r:id="rId5"/>
+    <sheet name="ASCII" sheetId="177" r:id="rId6"/>
+    <sheet name="マスタ(テナント)" sheetId="174" r:id="rId7"/>
+    <sheet name="マスタ（銀行）" sheetId="175" r:id="rId8"/>
+    <sheet name="マスタ（預金種類）" sheetId="176" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１" localSheetId="4">#REF!</definedName>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="186">
   <si>
     <t>作成者</t>
   </si>
@@ -1123,44 +1127,254 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>銀行名、銀行コード、支店、支店コード、口座種類、口座番号、口座名　を表示する</t>
+    <t>銀行名の選択</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支店名の選択</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択のみ</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設使用料・償還金等料金計算及び納付書作成システム
+口座振替データ作成機能構築業務</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>銀行関係追加</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示のみ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テナントコード</t>
+  </si>
+  <si>
+    <t>テナント名称</t>
+  </si>
+  <si>
+    <t>住所１</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>住所２</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>銀行名</t>
     <rPh sb="0" eb="2">
       <t>ギンコウ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <rPh sb="4" eb="6">
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>銀行コード</t>
+    <rPh sb="0" eb="2">
       <t>ギンコウ</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>支店名</t>
+    <rPh sb="0" eb="2">
       <t>シテン</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>支店コード</t>
+    <rPh sb="0" eb="2">
       <t>シテン</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>預金種目</t>
+    <rPh sb="0" eb="2">
+      <t>ヨキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュモク</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>口座番号</t>
+    <rPh sb="0" eb="2">
       <t>コウザ</t>
     </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>口座名義</t>
+    <rPh sb="0" eb="2">
       <t>コウザ</t>
     </rPh>
-    <rPh sb="26" eb="28">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>コウザ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
+    <rPh sb="2" eb="4">
+      <t>メイギ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>銀行名カナ</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>支店名カナ</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>銀行名</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>銀行コード</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>支店名</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>支店コード</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>銀行名（半角カナ）</t>
+  </si>
+  <si>
+    <t>支店名（半角カナ）</t>
+  </si>
+  <si>
+    <t>但陽信用金庫</t>
+  </si>
+  <si>
+    <t>生野</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>ﾀﾝﾖｳｼﾝｷﾝ</t>
+  </si>
+  <si>
+    <t>ｲｸﾉ</t>
+  </si>
+  <si>
+    <t>粟賀</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>ｱﾜｶﾞ</t>
+  </si>
+  <si>
+    <t>朝来</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>ｱｻｺﾞ</t>
+  </si>
+  <si>
+    <t>甘地</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>ｱﾏｼﾞ</t>
+  </si>
+  <si>
+    <t>香呂</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>ｺｳﾛ</t>
+  </si>
+  <si>
+    <t>福崎</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>ﾌｸｻｷ</t>
   </si>
   <si>
     <r>
@@ -1174,7 +1388,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>、銀行名、銀行コード、支店、支店コード、口座種類、口座番号、口座名</t>
+      <t>、銀行名、銀行コード、支店、支店コード、口座種類、口座番号、口座名、銀行カナ、支店カナ</t>
     </r>
     <r>
       <rPr>
@@ -1197,57 +1411,161 @@
     <rPh sb="25" eb="27">
       <t>ジュウショ</t>
     </rPh>
-    <rPh sb="62" eb="63">
+    <rPh sb="62" eb="64">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
       <t>ウエ</t>
     </rPh>
-    <rPh sb="63" eb="64">
+    <rPh sb="73" eb="74">
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>銀行名の選択</t>
+    <t>銀行名、銀行コード、支店、支店コード、口座種類、口座番号、口座名、銀行カナ、支店カナ　を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
     <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>支店名の選択</t>
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>預金種類</t>
+    <rPh sb="0" eb="2">
+      <t>ヨキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>1:普通預金</t>
+    <rPh sb="2" eb="4">
+      <t>フツウ</t>
+    </rPh>
     <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択のみ</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設使用料・償還金等料金計算及び納付書作成システム
-口座振替データ作成機能構築業務</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>銀行関係追加</t>
-    <rPh sb="0" eb="2">
-      <t>ギンコウ</t>
-    </rPh>
+      <t>ヨキン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2:当座預金</t>
     <rPh sb="2" eb="4">
-      <t>カンケイ</t>
+      <t>トウザ</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表示のみ</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
+      <t>ヨキン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>4:貯蓄預金</t>
+    <rPh sb="2" eb="4">
+      <t>チョチク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨキン</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>9:その他</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>預金種類をマスタから読み込む</t>
+    <rPh sb="0" eb="2">
+      <t>ヨキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（master.xlsx）マスタブック【テナント】シートからテナントコードで検索し</t>
+  </si>
+  <si>
+    <t>口座番号は数字７桁とする</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座名義は、半角英数字カナ１５文字以内とする</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イナイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1260,7 +1578,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -1350,8 +1668,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1361,6 +1692,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,7 +2012,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1803,12 +2140,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1818,20 +2179,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1839,24 +2209,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1866,10 +2224,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1877,33 +2262,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1912,7 +2270,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1943,6 +2300,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1952,22 +2319,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1979,26 +2337,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2131,6 +2486,649 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>353411</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>144083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614C61E7-7329-1B4A-5C46-86097D14DED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="57150"/>
+          <a:ext cx="7068536" cy="8659433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D3732C-FECB-552C-D8D9-8379BA59F997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="2466976"/>
+          <a:ext cx="3962400" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A24BC8-FC46-4DA8-9AD0-CC7EA7834DEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="2971801"/>
+          <a:ext cx="5962650" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCEDF6B0-F447-4498-8F07-CE8AC24F7B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="3486151"/>
+          <a:ext cx="4381500" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF6742B-E32A-4ECA-A0CA-E67AF9CD9FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="4038600"/>
+          <a:ext cx="5962650" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474C8271-BCE7-4411-B0D5-510390558812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="4533900"/>
+          <a:ext cx="4391025" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA104199-B1E5-40EF-A82E-827E2661AE1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="6057900"/>
+          <a:ext cx="3971925" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D34AC7E8-60DB-4A2D-AB93-D9EC65AC6AB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="6600825"/>
+          <a:ext cx="5943600" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE1BBD7-B3AA-4683-9733-DE0F7515D14A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809624" y="7096125"/>
+          <a:ext cx="6315075" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7773CFD1-D4D8-4135-BA4D-597A74FAEA87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="7610475"/>
+          <a:ext cx="5572126" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2453,7 +3451,7 @@
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
       <c r="C7" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
@@ -2499,23 +3497,23 @@
     </row>
     <row r="10" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
@@ -2525,46 +3523,46 @@
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51" t="s">
+      <c r="G15" s="53"/>
+      <c r="H15" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="61"/>
       <c r="N17" s="7" t="s">
         <v>81</v>
       </c>
@@ -2594,12 +3592,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2608,6 +3600,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2622,7 +3620,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I5:R6"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -2636,54 +3634,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="62"/>
+      <c r="R1" s="72"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2709,437 +3707,437 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60" t="s">
+      <c r="E4" s="71"/>
+      <c r="F4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="112">
+      <c r="B5" s="65">
         <v>45001</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="114">
-        <v>45889</v>
-      </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="113" t="s">
+      <c r="B6" s="67">
+        <v>45901</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="113"/>
-      <c r="F6" s="115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -3150,14 +4148,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -3174,62 +4220,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -3255,213 +4253,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="70" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="71" t="str">
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="87" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="74" t="s">
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="75" t="s">
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="74" t="s">
+      <c r="AP1" s="80"/>
+      <c r="AQ1" s="80"/>
+      <c r="AR1" s="80"/>
+      <c r="AS1" s="80"/>
+      <c r="AT1" s="80"/>
+      <c r="AU1" s="80"/>
+      <c r="AV1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74"/>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="74"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="75"/>
-      <c r="BD1" s="75"/>
-      <c r="BE1" s="75"/>
-      <c r="BF1" s="75"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="80"/>
+      <c r="BB1" s="80"/>
+      <c r="BC1" s="80"/>
+      <c r="BD1" s="80"/>
+      <c r="BE1" s="80"/>
+      <c r="BF1" s="80"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="70" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="76" t="str">
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="82" t="str">
         <f>表紙!H15</f>
         <v>テナント</v>
       </c>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="74" t="s">
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="79">
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="86">
         <v>44752</v>
       </c>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="74" t="s">
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="80"/>
+      <c r="AR2" s="80"/>
+      <c r="AS2" s="80"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="80"/>
+      <c r="AV2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="74"/>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="75"/>
-      <c r="BB2" s="75"/>
-      <c r="BC2" s="75"/>
-      <c r="BD2" s="75"/>
-      <c r="BE2" s="75"/>
-      <c r="BF2" s="75"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="80"/>
+      <c r="BB2" s="80"/>
+      <c r="BC2" s="80"/>
+      <c r="BD2" s="80"/>
+      <c r="BE2" s="80"/>
+      <c r="BF2" s="80"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="80" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="81"/>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="81"/>
-      <c r="AW3" s="81"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="81"/>
-      <c r="BC3" s="81"/>
-      <c r="BD3" s="81"/>
-      <c r="BE3" s="81"/>
-      <c r="BF3" s="82"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="78"/>
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="78"/>
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="78"/>
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="79"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -3472,434 +4470,434 @@
     <row r="5" spans="1:58">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="67" t="s">
+      <c r="AO5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="AP5" s="61"/>
-      <c r="AQ5" s="61"/>
-      <c r="AR5" s="61"/>
-      <c r="AS5" s="61"/>
-      <c r="AT5" s="61"/>
-      <c r="AU5" s="68" t="s">
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="AV5" s="68"/>
-      <c r="AW5" s="68"/>
-      <c r="AX5" s="68"/>
-      <c r="AY5" s="68"/>
-      <c r="AZ5" s="68"/>
-      <c r="BA5" s="68"/>
-      <c r="BB5" s="68"/>
-      <c r="BC5" s="68"/>
-      <c r="BD5" s="68"/>
-      <c r="BE5" s="68"/>
-      <c r="BF5" s="69"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="76"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="61"/>
-      <c r="AR6" s="61"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="61"/>
-      <c r="AU6" s="68"/>
-      <c r="AV6" s="68"/>
-      <c r="AW6" s="68"/>
-      <c r="AX6" s="68"/>
-      <c r="AY6" s="68"/>
-      <c r="AZ6" s="68"/>
-      <c r="BA6" s="68"/>
-      <c r="BB6" s="68"/>
-      <c r="BC6" s="68"/>
-      <c r="BD6" s="68"/>
-      <c r="BE6" s="68"/>
-      <c r="BF6" s="69"/>
+      <c r="AO6" s="74"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="62"/>
+      <c r="AT6" s="62"/>
+      <c r="AU6" s="75"/>
+      <c r="AV6" s="75"/>
+      <c r="AW6" s="75"/>
+      <c r="AX6" s="75"/>
+      <c r="AY6" s="75"/>
+      <c r="AZ6" s="75"/>
+      <c r="BA6" s="75"/>
+      <c r="BB6" s="75"/>
+      <c r="BC6" s="75"/>
+      <c r="BD6" s="75"/>
+      <c r="BE6" s="75"/>
+      <c r="BF6" s="76"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="68" t="s">
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="AV7" s="68"/>
-      <c r="AW7" s="68"/>
-      <c r="AX7" s="68"/>
-      <c r="AY7" s="68"/>
-      <c r="AZ7" s="68"/>
-      <c r="BA7" s="68"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="68"/>
-      <c r="BE7" s="68"/>
-      <c r="BF7" s="69"/>
+      <c r="AV7" s="75"/>
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="75"/>
+      <c r="BA7" s="75"/>
+      <c r="BB7" s="75"/>
+      <c r="BC7" s="75"/>
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="75"/>
+      <c r="BF7" s="76"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="61"/>
-      <c r="AS8" s="61"/>
-      <c r="AT8" s="61"/>
-      <c r="AU8" s="68"/>
-      <c r="AV8" s="68"/>
-      <c r="AW8" s="68"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="68"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="68"/>
-      <c r="BE8" s="68"/>
-      <c r="BF8" s="69"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="75"/>
+      <c r="BA8" s="75"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="75"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="75"/>
+      <c r="BF8" s="76"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="67" t="s">
+      <c r="AO9" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="68" t="s">
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="62"/>
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="AV9" s="68"/>
-      <c r="AW9" s="68"/>
-      <c r="AX9" s="68"/>
-      <c r="AY9" s="68"/>
-      <c r="AZ9" s="68"/>
-      <c r="BA9" s="68"/>
-      <c r="BB9" s="68"/>
-      <c r="BC9" s="68"/>
-      <c r="BD9" s="68"/>
-      <c r="BE9" s="68"/>
-      <c r="BF9" s="69"/>
+      <c r="AV9" s="75"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="75"/>
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="75"/>
+      <c r="BA9" s="75"/>
+      <c r="BB9" s="75"/>
+      <c r="BC9" s="75"/>
+      <c r="BD9" s="75"/>
+      <c r="BE9" s="75"/>
+      <c r="BF9" s="76"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="67"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="68"/>
-      <c r="AV10" s="68"/>
-      <c r="AW10" s="68"/>
-      <c r="AX10" s="68"/>
-      <c r="AY10" s="68"/>
-      <c r="AZ10" s="68"/>
-      <c r="BA10" s="68"/>
-      <c r="BB10" s="68"/>
-      <c r="BC10" s="68"/>
-      <c r="BD10" s="68"/>
-      <c r="BE10" s="68"/>
-      <c r="BF10" s="69"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="62"/>
+      <c r="AS10" s="62"/>
+      <c r="AT10" s="62"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="76"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="67" t="s">
+      <c r="AO11" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="61"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="61"/>
-      <c r="AU11" s="68" t="s">
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="62"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="62"/>
+      <c r="AT11" s="62"/>
+      <c r="AU11" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="AV11" s="68"/>
-      <c r="AW11" s="68"/>
-      <c r="AX11" s="68"/>
-      <c r="AY11" s="68"/>
-      <c r="AZ11" s="68"/>
-      <c r="BA11" s="68"/>
-      <c r="BB11" s="68"/>
-      <c r="BC11" s="68"/>
-      <c r="BD11" s="68"/>
-      <c r="BE11" s="68"/>
-      <c r="BF11" s="69"/>
+      <c r="AV11" s="75"/>
+      <c r="AW11" s="75"/>
+      <c r="AX11" s="75"/>
+      <c r="AY11" s="75"/>
+      <c r="AZ11" s="75"/>
+      <c r="BA11" s="75"/>
+      <c r="BB11" s="75"/>
+      <c r="BC11" s="75"/>
+      <c r="BD11" s="75"/>
+      <c r="BE11" s="75"/>
+      <c r="BF11" s="76"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="67"/>
-      <c r="AP12" s="61"/>
-      <c r="AQ12" s="61"/>
-      <c r="AR12" s="61"/>
-      <c r="AS12" s="61"/>
-      <c r="AT12" s="61"/>
-      <c r="AU12" s="68"/>
-      <c r="AV12" s="68"/>
-      <c r="AW12" s="68"/>
-      <c r="AX12" s="68"/>
-      <c r="AY12" s="68"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="68"/>
-      <c r="BB12" s="68"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="68"/>
-      <c r="BE12" s="68"/>
-      <c r="BF12" s="69"/>
+      <c r="AO12" s="74"/>
+      <c r="AP12" s="62"/>
+      <c r="AQ12" s="62"/>
+      <c r="AR12" s="62"/>
+      <c r="AS12" s="62"/>
+      <c r="AT12" s="62"/>
+      <c r="AU12" s="75"/>
+      <c r="AV12" s="75"/>
+      <c r="AW12" s="75"/>
+      <c r="AX12" s="75"/>
+      <c r="AY12" s="75"/>
+      <c r="AZ12" s="75"/>
+      <c r="BA12" s="75"/>
+      <c r="BB12" s="75"/>
+      <c r="BC12" s="75"/>
+      <c r="BD12" s="75"/>
+      <c r="BE12" s="75"/>
+      <c r="BF12" s="76"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="67" t="s">
+      <c r="AO13" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AP13" s="61"/>
-      <c r="AQ13" s="61"/>
-      <c r="AR13" s="61"/>
-      <c r="AS13" s="61"/>
-      <c r="AT13" s="61"/>
-      <c r="AU13" s="68" t="s">
+      <c r="AP13" s="62"/>
+      <c r="AQ13" s="62"/>
+      <c r="AR13" s="62"/>
+      <c r="AS13" s="62"/>
+      <c r="AT13" s="62"/>
+      <c r="AU13" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="AV13" s="68"/>
-      <c r="AW13" s="68"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="68"/>
-      <c r="BA13" s="68"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="68"/>
-      <c r="BE13" s="68"/>
-      <c r="BF13" s="69"/>
+      <c r="AV13" s="75"/>
+      <c r="AW13" s="75"/>
+      <c r="AX13" s="75"/>
+      <c r="AY13" s="75"/>
+      <c r="AZ13" s="75"/>
+      <c r="BA13" s="75"/>
+      <c r="BB13" s="75"/>
+      <c r="BC13" s="75"/>
+      <c r="BD13" s="75"/>
+      <c r="BE13" s="75"/>
+      <c r="BF13" s="76"/>
     </row>
     <row r="14" spans="1:58">
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="61"/>
-      <c r="AQ14" s="61"/>
-      <c r="AR14" s="61"/>
-      <c r="AS14" s="61"/>
-      <c r="AT14" s="61"/>
-      <c r="AU14" s="68"/>
-      <c r="AV14" s="68"/>
-      <c r="AW14" s="68"/>
-      <c r="AX14" s="68"/>
-      <c r="AY14" s="68"/>
-      <c r="AZ14" s="68"/>
-      <c r="BA14" s="68"/>
-      <c r="BB14" s="68"/>
-      <c r="BC14" s="68"/>
-      <c r="BD14" s="68"/>
-      <c r="BE14" s="68"/>
-      <c r="BF14" s="69"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="62"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="75"/>
+      <c r="AX14" s="75"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="75"/>
+      <c r="BA14" s="75"/>
+      <c r="BB14" s="75"/>
+      <c r="BC14" s="75"/>
+      <c r="BD14" s="75"/>
+      <c r="BE14" s="75"/>
+      <c r="BF14" s="76"/>
     </row>
     <row r="15" spans="1:58">
       <c r="A15" s="2"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="67" t="s">
+      <c r="AO15" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="AP15" s="61"/>
-      <c r="AQ15" s="61"/>
-      <c r="AR15" s="61"/>
-      <c r="AS15" s="61"/>
-      <c r="AT15" s="61"/>
-      <c r="AU15" s="68" t="s">
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="62"/>
+      <c r="AU15" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="AV15" s="68"/>
-      <c r="AW15" s="68"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="68"/>
-      <c r="BE15" s="68"/>
-      <c r="BF15" s="69"/>
+      <c r="AV15" s="75"/>
+      <c r="AW15" s="75"/>
+      <c r="AX15" s="75"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="75"/>
+      <c r="BA15" s="75"/>
+      <c r="BB15" s="75"/>
+      <c r="BC15" s="75"/>
+      <c r="BD15" s="75"/>
+      <c r="BE15" s="75"/>
+      <c r="BF15" s="76"/>
     </row>
     <row r="16" spans="1:58">
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="61"/>
-      <c r="AQ16" s="61"/>
-      <c r="AR16" s="61"/>
-      <c r="AS16" s="61"/>
-      <c r="AT16" s="61"/>
-      <c r="AU16" s="68"/>
-      <c r="AV16" s="68"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="68"/>
-      <c r="BE16" s="68"/>
-      <c r="BF16" s="69"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="62"/>
+      <c r="AQ16" s="62"/>
+      <c r="AR16" s="62"/>
+      <c r="AS16" s="62"/>
+      <c r="AT16" s="62"/>
+      <c r="AU16" s="75"/>
+      <c r="AV16" s="75"/>
+      <c r="AW16" s="75"/>
+      <c r="AX16" s="75"/>
+      <c r="AY16" s="75"/>
+      <c r="AZ16" s="75"/>
+      <c r="BA16" s="75"/>
+      <c r="BB16" s="75"/>
+      <c r="BC16" s="75"/>
+      <c r="BD16" s="75"/>
+      <c r="BE16" s="75"/>
+      <c r="BF16" s="76"/>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="67" t="s">
+      <c r="AO17" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="61"/>
-      <c r="AS17" s="61"/>
-      <c r="AT17" s="61"/>
-      <c r="AU17" s="68" t="s">
+      <c r="AP17" s="62"/>
+      <c r="AQ17" s="62"/>
+      <c r="AR17" s="62"/>
+      <c r="AS17" s="62"/>
+      <c r="AT17" s="62"/>
+      <c r="AU17" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="AV17" s="68"/>
-      <c r="AW17" s="68"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="68"/>
-      <c r="AZ17" s="68"/>
-      <c r="BA17" s="68"/>
-      <c r="BB17" s="68"/>
-      <c r="BC17" s="68"/>
-      <c r="BD17" s="68"/>
-      <c r="BE17" s="68"/>
-      <c r="BF17" s="69"/>
+      <c r="AV17" s="75"/>
+      <c r="AW17" s="75"/>
+      <c r="AX17" s="75"/>
+      <c r="AY17" s="75"/>
+      <c r="AZ17" s="75"/>
+      <c r="BA17" s="75"/>
+      <c r="BB17" s="75"/>
+      <c r="BC17" s="75"/>
+      <c r="BD17" s="75"/>
+      <c r="BE17" s="75"/>
+      <c r="BF17" s="76"/>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="61"/>
-      <c r="AS18" s="61"/>
-      <c r="AT18" s="61"/>
-      <c r="AU18" s="68"/>
-      <c r="AV18" s="68"/>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="68"/>
-      <c r="AY18" s="68"/>
-      <c r="AZ18" s="68"/>
-      <c r="BA18" s="68"/>
-      <c r="BB18" s="68"/>
-      <c r="BC18" s="68"/>
-      <c r="BD18" s="68"/>
-      <c r="BE18" s="68"/>
-      <c r="BF18" s="69"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="62"/>
+      <c r="AT18" s="62"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="75"/>
+      <c r="AX18" s="75"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="75"/>
+      <c r="BA18" s="75"/>
+      <c r="BB18" s="75"/>
+      <c r="BC18" s="75"/>
+      <c r="BD18" s="75"/>
+      <c r="BE18" s="75"/>
+      <c r="BF18" s="76"/>
     </row>
     <row r="19" spans="1:58" ht="11.25" customHeight="1">
       <c r="A19" s="2"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="67" t="s">
+      <c r="AO19" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="61"/>
-      <c r="AS19" s="61"/>
-      <c r="AT19" s="61"/>
-      <c r="AU19" s="68" t="s">
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="62"/>
+      <c r="AT19" s="62"/>
+      <c r="AU19" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="AV19" s="68"/>
-      <c r="AW19" s="68"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="68"/>
-      <c r="BB19" s="68"/>
-      <c r="BC19" s="68"/>
-      <c r="BD19" s="68"/>
-      <c r="BE19" s="68"/>
-      <c r="BF19" s="69"/>
+      <c r="AV19" s="75"/>
+      <c r="AW19" s="75"/>
+      <c r="AX19" s="75"/>
+      <c r="AY19" s="75"/>
+      <c r="AZ19" s="75"/>
+      <c r="BA19" s="75"/>
+      <c r="BB19" s="75"/>
+      <c r="BC19" s="75"/>
+      <c r="BD19" s="75"/>
+      <c r="BE19" s="75"/>
+      <c r="BF19" s="76"/>
     </row>
     <row r="20" spans="1:58">
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="61"/>
-      <c r="AQ20" s="61"/>
-      <c r="AR20" s="61"/>
-      <c r="AS20" s="61"/>
-      <c r="AT20" s="61"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="68"/>
-      <c r="BE20" s="68"/>
-      <c r="BF20" s="69"/>
+      <c r="AO20" s="74"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="62"/>
+      <c r="AT20" s="62"/>
+      <c r="AU20" s="75"/>
+      <c r="AV20" s="75"/>
+      <c r="AW20" s="75"/>
+      <c r="AX20" s="75"/>
+      <c r="AY20" s="75"/>
+      <c r="AZ20" s="75"/>
+      <c r="BA20" s="75"/>
+      <c r="BB20" s="75"/>
+      <c r="BC20" s="75"/>
+      <c r="BD20" s="75"/>
+      <c r="BE20" s="75"/>
+      <c r="BF20" s="76"/>
     </row>
     <row r="21" spans="1:58">
       <c r="A21" s="2"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="67" t="s">
+      <c r="AO21" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="AP21" s="61"/>
-      <c r="AQ21" s="61"/>
-      <c r="AR21" s="61"/>
-      <c r="AS21" s="61"/>
-      <c r="AT21" s="61"/>
-      <c r="AU21" s="68" t="s">
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="62"/>
+      <c r="AT21" s="62"/>
+      <c r="AU21" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="68"/>
-      <c r="BE21" s="68"/>
-      <c r="BF21" s="69"/>
+      <c r="AV21" s="75"/>
+      <c r="AW21" s="75"/>
+      <c r="AX21" s="75"/>
+      <c r="AY21" s="75"/>
+      <c r="AZ21" s="75"/>
+      <c r="BA21" s="75"/>
+      <c r="BB21" s="75"/>
+      <c r="BC21" s="75"/>
+      <c r="BD21" s="75"/>
+      <c r="BE21" s="75"/>
+      <c r="BF21" s="76"/>
     </row>
     <row r="22" spans="1:58">
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="67"/>
-      <c r="AP22" s="61"/>
-      <c r="AQ22" s="61"/>
-      <c r="AR22" s="61"/>
-      <c r="AS22" s="61"/>
-      <c r="AT22" s="61"/>
-      <c r="AU22" s="68"/>
-      <c r="AV22" s="68"/>
-      <c r="AW22" s="68"/>
-      <c r="AX22" s="68"/>
-      <c r="AY22" s="68"/>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="68"/>
-      <c r="BB22" s="68"/>
-      <c r="BC22" s="68"/>
-      <c r="BD22" s="68"/>
-      <c r="BE22" s="68"/>
-      <c r="BF22" s="69"/>
+      <c r="AO22" s="74"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="62"/>
+      <c r="AT22" s="62"/>
+      <c r="AU22" s="75"/>
+      <c r="AV22" s="75"/>
+      <c r="AW22" s="75"/>
+      <c r="AX22" s="75"/>
+      <c r="AY22" s="75"/>
+      <c r="AZ22" s="75"/>
+      <c r="BA22" s="75"/>
+      <c r="BB22" s="75"/>
+      <c r="BC22" s="75"/>
+      <c r="BD22" s="75"/>
+      <c r="BE22" s="75"/>
+      <c r="BF22" s="76"/>
     </row>
     <row r="23" spans="1:58">
       <c r="A23" s="2"/>
@@ -3910,382 +4908,382 @@
     <row r="24" spans="1:58">
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="67" t="s">
+      <c r="AO24" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="AP24" s="61"/>
-      <c r="AQ24" s="61"/>
-      <c r="AR24" s="61"/>
-      <c r="AS24" s="61"/>
-      <c r="AT24" s="61"/>
-      <c r="AU24" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="AV24" s="68"/>
-      <c r="AW24" s="68"/>
-      <c r="AX24" s="68"/>
-      <c r="AY24" s="68"/>
-      <c r="AZ24" s="68"/>
-      <c r="BA24" s="68"/>
-      <c r="BB24" s="68"/>
-      <c r="BC24" s="68"/>
-      <c r="BD24" s="68"/>
-      <c r="BE24" s="68"/>
-      <c r="BF24" s="69"/>
+      <c r="AP24" s="62"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="62"/>
+      <c r="AS24" s="62"/>
+      <c r="AT24" s="62"/>
+      <c r="AU24" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV24" s="75"/>
+      <c r="AW24" s="75"/>
+      <c r="AX24" s="75"/>
+      <c r="AY24" s="75"/>
+      <c r="AZ24" s="75"/>
+      <c r="BA24" s="75"/>
+      <c r="BB24" s="75"/>
+      <c r="BC24" s="75"/>
+      <c r="BD24" s="75"/>
+      <c r="BE24" s="75"/>
+      <c r="BF24" s="76"/>
     </row>
     <row r="25" spans="1:58">
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="67"/>
-      <c r="AP25" s="61"/>
-      <c r="AQ25" s="61"/>
-      <c r="AR25" s="61"/>
-      <c r="AS25" s="61"/>
-      <c r="AT25" s="61"/>
-      <c r="AU25" s="68"/>
-      <c r="AV25" s="68"/>
-      <c r="AW25" s="68"/>
-      <c r="AX25" s="68"/>
-      <c r="AY25" s="68"/>
-      <c r="AZ25" s="68"/>
-      <c r="BA25" s="68"/>
-      <c r="BB25" s="68"/>
-      <c r="BC25" s="68"/>
-      <c r="BD25" s="68"/>
-      <c r="BE25" s="68"/>
-      <c r="BF25" s="69"/>
+      <c r="AO25" s="74"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="62"/>
+      <c r="AS25" s="62"/>
+      <c r="AT25" s="62"/>
+      <c r="AU25" s="75"/>
+      <c r="AV25" s="75"/>
+      <c r="AW25" s="75"/>
+      <c r="AX25" s="75"/>
+      <c r="AY25" s="75"/>
+      <c r="AZ25" s="75"/>
+      <c r="BA25" s="75"/>
+      <c r="BB25" s="75"/>
+      <c r="BC25" s="75"/>
+      <c r="BD25" s="75"/>
+      <c r="BE25" s="75"/>
+      <c r="BF25" s="76"/>
     </row>
     <row r="26" spans="1:58">
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="67" t="s">
+      <c r="AO26" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="AP26" s="61"/>
-      <c r="AQ26" s="61"/>
-      <c r="AR26" s="61"/>
-      <c r="AS26" s="61"/>
-      <c r="AT26" s="61"/>
-      <c r="AU26" s="68" t="s">
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="62"/>
+      <c r="AS26" s="62"/>
+      <c r="AT26" s="62"/>
+      <c r="AU26" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="AV26" s="68"/>
-      <c r="AW26" s="68"/>
-      <c r="AX26" s="68"/>
-      <c r="AY26" s="68"/>
-      <c r="AZ26" s="68"/>
-      <c r="BA26" s="68"/>
-      <c r="BB26" s="68"/>
-      <c r="BC26" s="68"/>
-      <c r="BD26" s="68"/>
-      <c r="BE26" s="68"/>
-      <c r="BF26" s="69"/>
+      <c r="AV26" s="75"/>
+      <c r="AW26" s="75"/>
+      <c r="AX26" s="75"/>
+      <c r="AY26" s="75"/>
+      <c r="AZ26" s="75"/>
+      <c r="BA26" s="75"/>
+      <c r="BB26" s="75"/>
+      <c r="BC26" s="75"/>
+      <c r="BD26" s="75"/>
+      <c r="BE26" s="75"/>
+      <c r="BF26" s="76"/>
     </row>
     <row r="27" spans="1:58">
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="67"/>
-      <c r="AP27" s="61"/>
-      <c r="AQ27" s="61"/>
-      <c r="AR27" s="61"/>
-      <c r="AS27" s="61"/>
-      <c r="AT27" s="61"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="68"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="68"/>
-      <c r="BB27" s="68"/>
-      <c r="BC27" s="68"/>
-      <c r="BD27" s="68"/>
-      <c r="BE27" s="68"/>
-      <c r="BF27" s="69"/>
+      <c r="AO27" s="74"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="75"/>
+      <c r="AV27" s="75"/>
+      <c r="AW27" s="75"/>
+      <c r="AX27" s="75"/>
+      <c r="AY27" s="75"/>
+      <c r="AZ27" s="75"/>
+      <c r="BA27" s="75"/>
+      <c r="BB27" s="75"/>
+      <c r="BC27" s="75"/>
+      <c r="BD27" s="75"/>
+      <c r="BE27" s="75"/>
+      <c r="BF27" s="76"/>
     </row>
     <row r="28" spans="1:58">
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
-      <c r="AO28" s="67" t="s">
+      <c r="AO28" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="AP28" s="61"/>
-      <c r="AQ28" s="61"/>
-      <c r="AR28" s="61"/>
-      <c r="AS28" s="61"/>
-      <c r="AT28" s="61"/>
-      <c r="AU28" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="AV28" s="68"/>
-      <c r="AW28" s="68"/>
-      <c r="AX28" s="68"/>
-      <c r="AY28" s="68"/>
-      <c r="AZ28" s="68"/>
-      <c r="BA28" s="68"/>
-      <c r="BB28" s="68"/>
-      <c r="BC28" s="68"/>
-      <c r="BD28" s="68"/>
-      <c r="BE28" s="68"/>
-      <c r="BF28" s="69"/>
+      <c r="AP28" s="62"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="62"/>
+      <c r="AS28" s="62"/>
+      <c r="AT28" s="62"/>
+      <c r="AU28" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV28" s="75"/>
+      <c r="AW28" s="75"/>
+      <c r="AX28" s="75"/>
+      <c r="AY28" s="75"/>
+      <c r="AZ28" s="75"/>
+      <c r="BA28" s="75"/>
+      <c r="BB28" s="75"/>
+      <c r="BC28" s="75"/>
+      <c r="BD28" s="75"/>
+      <c r="BE28" s="75"/>
+      <c r="BF28" s="76"/>
     </row>
     <row r="29" spans="1:58">
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
-      <c r="AO29" s="67"/>
-      <c r="AP29" s="61"/>
-      <c r="AQ29" s="61"/>
-      <c r="AR29" s="61"/>
-      <c r="AS29" s="61"/>
-      <c r="AT29" s="61"/>
-      <c r="AU29" s="68"/>
-      <c r="AV29" s="68"/>
-      <c r="AW29" s="68"/>
-      <c r="AX29" s="68"/>
-      <c r="AY29" s="68"/>
-      <c r="AZ29" s="68"/>
-      <c r="BA29" s="68"/>
-      <c r="BB29" s="68"/>
-      <c r="BC29" s="68"/>
-      <c r="BD29" s="68"/>
-      <c r="BE29" s="68"/>
-      <c r="BF29" s="69"/>
+      <c r="AO29" s="74"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="62"/>
+      <c r="AS29" s="62"/>
+      <c r="AT29" s="62"/>
+      <c r="AU29" s="75"/>
+      <c r="AV29" s="75"/>
+      <c r="AW29" s="75"/>
+      <c r="AX29" s="75"/>
+      <c r="AY29" s="75"/>
+      <c r="AZ29" s="75"/>
+      <c r="BA29" s="75"/>
+      <c r="BB29" s="75"/>
+      <c r="BC29" s="75"/>
+      <c r="BD29" s="75"/>
+      <c r="BE29" s="75"/>
+      <c r="BF29" s="76"/>
     </row>
     <row r="30" spans="1:58">
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
-      <c r="AO30" s="67" t="s">
+      <c r="AO30" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="AP30" s="61"/>
-      <c r="AQ30" s="61"/>
-      <c r="AR30" s="61"/>
-      <c r="AS30" s="61"/>
-      <c r="AT30" s="61"/>
-      <c r="AU30" s="68" t="s">
+      <c r="AP30" s="62"/>
+      <c r="AQ30" s="62"/>
+      <c r="AR30" s="62"/>
+      <c r="AS30" s="62"/>
+      <c r="AT30" s="62"/>
+      <c r="AU30" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="AV30" s="68"/>
-      <c r="AW30" s="68"/>
-      <c r="AX30" s="68"/>
-      <c r="AY30" s="68"/>
-      <c r="AZ30" s="68"/>
-      <c r="BA30" s="68"/>
-      <c r="BB30" s="68"/>
-      <c r="BC30" s="68"/>
-      <c r="BD30" s="68"/>
-      <c r="BE30" s="68"/>
-      <c r="BF30" s="69"/>
+      <c r="AV30" s="75"/>
+      <c r="AW30" s="75"/>
+      <c r="AX30" s="75"/>
+      <c r="AY30" s="75"/>
+      <c r="AZ30" s="75"/>
+      <c r="BA30" s="75"/>
+      <c r="BB30" s="75"/>
+      <c r="BC30" s="75"/>
+      <c r="BD30" s="75"/>
+      <c r="BE30" s="75"/>
+      <c r="BF30" s="76"/>
     </row>
     <row r="31" spans="1:58">
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
-      <c r="AO31" s="67"/>
-      <c r="AP31" s="61"/>
-      <c r="AQ31" s="61"/>
-      <c r="AR31" s="61"/>
-      <c r="AS31" s="61"/>
-      <c r="AT31" s="61"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="68"/>
-      <c r="BA31" s="68"/>
-      <c r="BB31" s="68"/>
-      <c r="BC31" s="68"/>
-      <c r="BD31" s="68"/>
-      <c r="BE31" s="68"/>
-      <c r="BF31" s="69"/>
+      <c r="AO31" s="74"/>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="62"/>
+      <c r="AT31" s="62"/>
+      <c r="AU31" s="75"/>
+      <c r="AV31" s="75"/>
+      <c r="AW31" s="75"/>
+      <c r="AX31" s="75"/>
+      <c r="AY31" s="75"/>
+      <c r="AZ31" s="75"/>
+      <c r="BA31" s="75"/>
+      <c r="BB31" s="75"/>
+      <c r="BC31" s="75"/>
+      <c r="BD31" s="75"/>
+      <c r="BE31" s="75"/>
+      <c r="BF31" s="76"/>
     </row>
     <row r="32" spans="1:58">
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
-      <c r="AO32" s="67" t="s">
+      <c r="AO32" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="AP32" s="61"/>
-      <c r="AQ32" s="61"/>
-      <c r="AR32" s="61"/>
-      <c r="AS32" s="61"/>
-      <c r="AT32" s="61"/>
-      <c r="AU32" s="68" t="s">
+      <c r="AP32" s="62"/>
+      <c r="AQ32" s="62"/>
+      <c r="AR32" s="62"/>
+      <c r="AS32" s="62"/>
+      <c r="AT32" s="62"/>
+      <c r="AU32" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="AV32" s="68"/>
-      <c r="AW32" s="68"/>
-      <c r="AX32" s="68"/>
-      <c r="AY32" s="68"/>
-      <c r="AZ32" s="68"/>
-      <c r="BA32" s="68"/>
-      <c r="BB32" s="68"/>
-      <c r="BC32" s="68"/>
-      <c r="BD32" s="68"/>
-      <c r="BE32" s="68"/>
-      <c r="BF32" s="69"/>
+      <c r="AV32" s="75"/>
+      <c r="AW32" s="75"/>
+      <c r="AX32" s="75"/>
+      <c r="AY32" s="75"/>
+      <c r="AZ32" s="75"/>
+      <c r="BA32" s="75"/>
+      <c r="BB32" s="75"/>
+      <c r="BC32" s="75"/>
+      <c r="BD32" s="75"/>
+      <c r="BE32" s="75"/>
+      <c r="BF32" s="76"/>
     </row>
     <row r="33" spans="1:58">
       <c r="A33" s="2"/>
       <c r="AN33" s="3"/>
-      <c r="AO33" s="67"/>
-      <c r="AP33" s="61"/>
-      <c r="AQ33" s="61"/>
-      <c r="AR33" s="61"/>
-      <c r="AS33" s="61"/>
-      <c r="AT33" s="61"/>
-      <c r="AU33" s="68"/>
-      <c r="AV33" s="68"/>
-      <c r="AW33" s="68"/>
-      <c r="AX33" s="68"/>
-      <c r="AY33" s="68"/>
-      <c r="AZ33" s="68"/>
-      <c r="BA33" s="68"/>
-      <c r="BB33" s="68"/>
-      <c r="BC33" s="68"/>
-      <c r="BD33" s="68"/>
-      <c r="BE33" s="68"/>
-      <c r="BF33" s="69"/>
+      <c r="AO33" s="74"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="62"/>
+      <c r="AT33" s="62"/>
+      <c r="AU33" s="75"/>
+      <c r="AV33" s="75"/>
+      <c r="AW33" s="75"/>
+      <c r="AX33" s="75"/>
+      <c r="AY33" s="75"/>
+      <c r="AZ33" s="75"/>
+      <c r="BA33" s="75"/>
+      <c r="BB33" s="75"/>
+      <c r="BC33" s="75"/>
+      <c r="BD33" s="75"/>
+      <c r="BE33" s="75"/>
+      <c r="BF33" s="76"/>
     </row>
     <row r="34" spans="1:58">
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
-      <c r="AO34" s="67" t="s">
+      <c r="AO34" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="AP34" s="61"/>
-      <c r="AQ34" s="61"/>
-      <c r="AR34" s="61"/>
-      <c r="AS34" s="61"/>
-      <c r="AT34" s="61"/>
-      <c r="AU34" s="68" t="s">
+      <c r="AP34" s="62"/>
+      <c r="AQ34" s="62"/>
+      <c r="AR34" s="62"/>
+      <c r="AS34" s="62"/>
+      <c r="AT34" s="62"/>
+      <c r="AU34" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="AV34" s="68"/>
-      <c r="AW34" s="68"/>
-      <c r="AX34" s="68"/>
-      <c r="AY34" s="68"/>
-      <c r="AZ34" s="68"/>
-      <c r="BA34" s="68"/>
-      <c r="BB34" s="68"/>
-      <c r="BC34" s="68"/>
-      <c r="BD34" s="68"/>
-      <c r="BE34" s="68"/>
-      <c r="BF34" s="69"/>
+      <c r="AV34" s="75"/>
+      <c r="AW34" s="75"/>
+      <c r="AX34" s="75"/>
+      <c r="AY34" s="75"/>
+      <c r="AZ34" s="75"/>
+      <c r="BA34" s="75"/>
+      <c r="BB34" s="75"/>
+      <c r="BC34" s="75"/>
+      <c r="BD34" s="75"/>
+      <c r="BE34" s="75"/>
+      <c r="BF34" s="76"/>
     </row>
     <row r="35" spans="1:58">
       <c r="A35" s="2"/>
       <c r="AN35" s="3"/>
-      <c r="AO35" s="67"/>
-      <c r="AP35" s="61"/>
-      <c r="AQ35" s="61"/>
-      <c r="AR35" s="61"/>
-      <c r="AS35" s="61"/>
-      <c r="AT35" s="61"/>
-      <c r="AU35" s="68"/>
-      <c r="AV35" s="68"/>
-      <c r="AW35" s="68"/>
-      <c r="AX35" s="68"/>
-      <c r="AY35" s="68"/>
-      <c r="AZ35" s="68"/>
-      <c r="BA35" s="68"/>
-      <c r="BB35" s="68"/>
-      <c r="BC35" s="68"/>
-      <c r="BD35" s="68"/>
-      <c r="BE35" s="68"/>
-      <c r="BF35" s="69"/>
+      <c r="AO35" s="74"/>
+      <c r="AP35" s="62"/>
+      <c r="AQ35" s="62"/>
+      <c r="AR35" s="62"/>
+      <c r="AS35" s="62"/>
+      <c r="AT35" s="62"/>
+      <c r="AU35" s="75"/>
+      <c r="AV35" s="75"/>
+      <c r="AW35" s="75"/>
+      <c r="AX35" s="75"/>
+      <c r="AY35" s="75"/>
+      <c r="AZ35" s="75"/>
+      <c r="BA35" s="75"/>
+      <c r="BB35" s="75"/>
+      <c r="BC35" s="75"/>
+      <c r="BD35" s="75"/>
+      <c r="BE35" s="75"/>
+      <c r="BF35" s="76"/>
     </row>
     <row r="36" spans="1:58">
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
-      <c r="AO36" s="67" t="s">
+      <c r="AO36" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="AP36" s="61"/>
-      <c r="AQ36" s="61"/>
-      <c r="AR36" s="61"/>
-      <c r="AS36" s="61"/>
-      <c r="AT36" s="61"/>
-      <c r="AU36" s="68" t="s">
+      <c r="AP36" s="62"/>
+      <c r="AQ36" s="62"/>
+      <c r="AR36" s="62"/>
+      <c r="AS36" s="62"/>
+      <c r="AT36" s="62"/>
+      <c r="AU36" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="AV36" s="68"/>
-      <c r="AW36" s="68"/>
-      <c r="AX36" s="68"/>
-      <c r="AY36" s="68"/>
-      <c r="AZ36" s="68"/>
-      <c r="BA36" s="68"/>
-      <c r="BB36" s="68"/>
-      <c r="BC36" s="68"/>
-      <c r="BD36" s="68"/>
-      <c r="BE36" s="68"/>
-      <c r="BF36" s="69"/>
+      <c r="AV36" s="75"/>
+      <c r="AW36" s="75"/>
+      <c r="AX36" s="75"/>
+      <c r="AY36" s="75"/>
+      <c r="AZ36" s="75"/>
+      <c r="BA36" s="75"/>
+      <c r="BB36" s="75"/>
+      <c r="BC36" s="75"/>
+      <c r="BD36" s="75"/>
+      <c r="BE36" s="75"/>
+      <c r="BF36" s="76"/>
     </row>
     <row r="37" spans="1:58">
       <c r="A37" s="2"/>
       <c r="AN37" s="3"/>
-      <c r="AO37" s="67"/>
-      <c r="AP37" s="61"/>
-      <c r="AQ37" s="61"/>
-      <c r="AR37" s="61"/>
-      <c r="AS37" s="61"/>
-      <c r="AT37" s="61"/>
-      <c r="AU37" s="68"/>
-      <c r="AV37" s="68"/>
-      <c r="AW37" s="68"/>
-      <c r="AX37" s="68"/>
-      <c r="AY37" s="68"/>
-      <c r="AZ37" s="68"/>
-      <c r="BA37" s="68"/>
-      <c r="BB37" s="68"/>
-      <c r="BC37" s="68"/>
-      <c r="BD37" s="68"/>
-      <c r="BE37" s="68"/>
-      <c r="BF37" s="69"/>
+      <c r="AO37" s="74"/>
+      <c r="AP37" s="62"/>
+      <c r="AQ37" s="62"/>
+      <c r="AR37" s="62"/>
+      <c r="AS37" s="62"/>
+      <c r="AT37" s="62"/>
+      <c r="AU37" s="75"/>
+      <c r="AV37" s="75"/>
+      <c r="AW37" s="75"/>
+      <c r="AX37" s="75"/>
+      <c r="AY37" s="75"/>
+      <c r="AZ37" s="75"/>
+      <c r="BA37" s="75"/>
+      <c r="BB37" s="75"/>
+      <c r="BC37" s="75"/>
+      <c r="BD37" s="75"/>
+      <c r="BE37" s="75"/>
+      <c r="BF37" s="76"/>
     </row>
     <row r="38" spans="1:58">
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
-      <c r="AO38" s="67"/>
-      <c r="AP38" s="61"/>
-      <c r="AQ38" s="61"/>
-      <c r="AR38" s="61"/>
-      <c r="AS38" s="61"/>
-      <c r="AT38" s="61"/>
-      <c r="AU38" s="68"/>
-      <c r="AV38" s="68"/>
-      <c r="AW38" s="68"/>
-      <c r="AX38" s="68"/>
-      <c r="AY38" s="68"/>
-      <c r="AZ38" s="68"/>
-      <c r="BA38" s="68"/>
-      <c r="BB38" s="68"/>
-      <c r="BC38" s="68"/>
-      <c r="BD38" s="68"/>
-      <c r="BE38" s="68"/>
-      <c r="BF38" s="69"/>
+      <c r="AO38" s="74"/>
+      <c r="AP38" s="62"/>
+      <c r="AQ38" s="62"/>
+      <c r="AR38" s="62"/>
+      <c r="AS38" s="62"/>
+      <c r="AT38" s="62"/>
+      <c r="AU38" s="75"/>
+      <c r="AV38" s="75"/>
+      <c r="AW38" s="75"/>
+      <c r="AX38" s="75"/>
+      <c r="AY38" s="75"/>
+      <c r="AZ38" s="75"/>
+      <c r="BA38" s="75"/>
+      <c r="BB38" s="75"/>
+      <c r="BC38" s="75"/>
+      <c r="BD38" s="75"/>
+      <c r="BE38" s="75"/>
+      <c r="BF38" s="76"/>
     </row>
     <row r="39" spans="1:58">
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
-      <c r="AO39" s="67"/>
-      <c r="AP39" s="61"/>
-      <c r="AQ39" s="61"/>
-      <c r="AR39" s="61"/>
-      <c r="AS39" s="61"/>
-      <c r="AT39" s="61"/>
-      <c r="AU39" s="68"/>
-      <c r="AV39" s="68"/>
-      <c r="AW39" s="68"/>
-      <c r="AX39" s="68"/>
-      <c r="AY39" s="68"/>
-      <c r="AZ39" s="68"/>
-      <c r="BA39" s="68"/>
-      <c r="BB39" s="68"/>
-      <c r="BC39" s="68"/>
-      <c r="BD39" s="68"/>
-      <c r="BE39" s="68"/>
-      <c r="BF39" s="69"/>
+      <c r="AO39" s="74"/>
+      <c r="AP39" s="62"/>
+      <c r="AQ39" s="62"/>
+      <c r="AR39" s="62"/>
+      <c r="AS39" s="62"/>
+      <c r="AT39" s="62"/>
+      <c r="AU39" s="75"/>
+      <c r="AV39" s="75"/>
+      <c r="AW39" s="75"/>
+      <c r="AX39" s="75"/>
+      <c r="AY39" s="75"/>
+      <c r="AZ39" s="75"/>
+      <c r="BA39" s="75"/>
+      <c r="BB39" s="75"/>
+      <c r="BC39" s="75"/>
+      <c r="BD39" s="75"/>
+      <c r="BE39" s="75"/>
+      <c r="BF39" s="76"/>
     </row>
     <row r="40" spans="1:58">
       <c r="A40" s="2"/>
@@ -4403,45 +5401,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AU15:BF16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AU17:BF18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="AO24:AT25"/>
-    <mergeCell ref="AU24:BF25"/>
-    <mergeCell ref="AO26:AT27"/>
-    <mergeCell ref="AU26:BF27"/>
-    <mergeCell ref="AO28:AT29"/>
-    <mergeCell ref="AU28:BF29"/>
     <mergeCell ref="AO36:AT37"/>
     <mergeCell ref="AU36:BF37"/>
     <mergeCell ref="AO38:AT39"/>
@@ -4452,6 +5411,45 @@
     <mergeCell ref="AU32:BF33"/>
     <mergeCell ref="AO34:AT35"/>
     <mergeCell ref="AU34:BF35"/>
+    <mergeCell ref="AO24:AT25"/>
+    <mergeCell ref="AU24:BF25"/>
+    <mergeCell ref="AO26:AT27"/>
+    <mergeCell ref="AU26:BF27"/>
+    <mergeCell ref="AO28:AT29"/>
+    <mergeCell ref="AU28:BF29"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AU15:BF16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AU17:BF18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4467,8 +5465,8 @@
   </sheetPr>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4477,27 +5475,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91" t="str">
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -4512,24 +5510,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="94" t="str">
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="100" t="str">
         <f>表紙!H15</f>
         <v>テナント</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -4544,42 +5542,42 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85" t="s">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85" t="s">
+      <c r="D4" s="92"/>
+      <c r="E4" s="92" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85" t="s">
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="38" t="s">
         <v>45</v>
       </c>
@@ -4595,23 +5593,23 @@
       <c r="J5" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="85"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="40" t="s">
         <v>51</v>
       </c>
@@ -4620,25 +5618,25 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="86" t="s">
+      <c r="K6" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="85"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="40" t="s">
         <v>51</v>
       </c>
@@ -4647,25 +5645,25 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="85"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="40" t="s">
         <v>51</v>
       </c>
@@ -4674,25 +5672,25 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
-      <c r="K8" s="86" t="s">
+      <c r="K8" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="85"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="40" t="s">
         <v>51</v>
       </c>
@@ -4701,25 +5699,25 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="40" t="s">
         <v>54</v>
       </c>
@@ -4734,25 +5732,25 @@
         <v>4</v>
       </c>
       <c r="J10" s="38"/>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85" t="s">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="85"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="40" t="s">
         <v>54</v>
       </c>
@@ -4767,25 +5765,25 @@
         <v>20</v>
       </c>
       <c r="J11" s="38"/>
-      <c r="K11" s="86" t="s">
+      <c r="K11" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="85"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="40" t="s">
         <v>54</v>
       </c>
@@ -4796,25 +5794,25 @@
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85" t="s">
+      <c r="B13" s="92"/>
+      <c r="C13" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="85"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="40" t="s">
         <v>41</v>
       </c>
@@ -4825,25 +5823,25 @@
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
-      <c r="K13" s="86" t="s">
+      <c r="K13" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85" t="s">
+      <c r="B14" s="92"/>
+      <c r="C14" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="85"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="40" t="s">
         <v>67</v>
       </c>
@@ -4852,25 +5850,25 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="86" t="s">
+      <c r="K14" s="103" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83" t="s">
+      <c r="B15" s="90"/>
+      <c r="C15" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="83"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="47" t="s">
         <v>41</v>
       </c>
@@ -4881,27 +5879,27 @@
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83" t="s">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="47" t="s">
         <v>41</v>
       </c>
@@ -4912,27 +5910,27 @@
       </c>
       <c r="I16" s="48"/>
       <c r="J16" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K16" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83" t="s">
+      <c r="B17" s="90"/>
+      <c r="C17" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="83"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="47" t="s">
         <v>41</v>
       </c>
@@ -4943,27 +5941,27 @@
       </c>
       <c r="I17" s="48"/>
       <c r="J17" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="K17" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83" t="s">
+      <c r="B18" s="90"/>
+      <c r="C18" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="83"/>
+      <c r="D18" s="90"/>
       <c r="E18" s="47" t="s">
         <v>41</v>
       </c>
@@ -4974,27 +5972,27 @@
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="K18" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83" t="s">
+      <c r="B19" s="90"/>
+      <c r="C19" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="47" t="s">
         <v>41</v>
       </c>
@@ -5005,27 +6003,27 @@
       </c>
       <c r="I19" s="48"/>
       <c r="J19" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83" t="s">
+      <c r="B20" s="90"/>
+      <c r="C20" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="83"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="47" t="s">
         <v>41</v>
       </c>
@@ -5036,25 +6034,25 @@
       </c>
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
-      <c r="K20" s="84" t="s">
+      <c r="K20" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83" t="s">
+      <c r="B21" s="90"/>
+      <c r="C21" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="83"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="47" t="s">
         <v>41</v>
       </c>
@@ -5065,52 +6063,33 @@
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
-      <c r="K21" s="84" t="s">
+      <c r="K21" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K16:Q16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="K8:Q8"/>
@@ -5120,21 +6099,40 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5147,10 +6145,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5160,27 +6158,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91" t="str">
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="93"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -5195,24 +6193,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="94" t="str">
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="100" t="str">
         <f>表紙!H15</f>
         <v>テナント</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -5227,189 +6225,189 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85" t="s">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="112"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="106"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="105"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="106"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="99"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="109"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="43"/>
       <c r="B9" s="44"/>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="99"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="109"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="43"/>
       <c r="B10" s="44"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="105"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="106"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="105"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="106"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="45"/>
       <c r="B12" s="46"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="108"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="115"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="41" t="s">
@@ -5418,587 +6416,703 @@
       <c r="B13" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="111"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="112"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="43"/>
       <c r="B14" s="44"/>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="106"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="99"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="109"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="102"/>
+      <c r="C16" s="119" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="121"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
-      <c r="B17" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="99"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="109"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="99"/>
+      <c r="B18" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="109"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="99"/>
+      <c r="C19" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="109"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="43"/>
-      <c r="B20" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="99"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="109"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="99"/>
+      <c r="B21" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="109"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="108"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="109"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="115"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="111"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="105"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="118"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="105"/>
+      <c r="C25" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="109"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="103" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="105"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="106"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="43"/>
       <c r="B27" s="44"/>
-      <c r="C27" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="105"/>
+      <c r="C27" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="106"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="43"/>
       <c r="B28" s="44"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="105"/>
+      <c r="C28" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="106"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="109" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="111"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="106"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="43"/>
       <c r="B30" s="44"/>
-      <c r="C30" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="105"/>
+      <c r="C30" s="104" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="106"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="43"/>
       <c r="B31" s="44"/>
-      <c r="C31" s="97" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="99"/>
+      <c r="C31" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="106"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="108"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="106"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="41" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B33" s="42"/>
-      <c r="C33" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="110"/>
-      <c r="Q33" s="111"/>
+      <c r="C33" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="112"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="43"/>
       <c r="B34" s="44"/>
-      <c r="C34" s="103" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="105"/>
+      <c r="C34" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="106"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="43"/>
       <c r="B35" s="44"/>
-      <c r="C35" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="105"/>
+      <c r="C35" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="109"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="43"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="104"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="105"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="115"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="45"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="108"/>
+      <c r="A37" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="112"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="110"/>
-      <c r="P38" s="110"/>
-      <c r="Q38" s="111"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="106"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="43"/>
       <c r="B39" s="44"/>
-      <c r="C39" s="103" t="s">
+      <c r="C39" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="106"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="106"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="115"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="42"/>
+      <c r="C42" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
+      <c r="O42" s="111"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="112"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="104"/>
-      <c r="Q39" s="105"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="107"/>
-      <c r="O40" s="107"/>
-      <c r="P40" s="107"/>
-      <c r="Q40" s="108"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="106"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="115"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="47">
+    <mergeCell ref="C19:Q19"/>
+    <mergeCell ref="C16:Q16"/>
+    <mergeCell ref="C18:Q18"/>
+    <mergeCell ref="C17:Q17"/>
+    <mergeCell ref="C42:Q42"/>
+    <mergeCell ref="C43:Q43"/>
+    <mergeCell ref="C44:Q44"/>
+    <mergeCell ref="C40:Q40"/>
+    <mergeCell ref="C20:Q20"/>
+    <mergeCell ref="C21:Q21"/>
+    <mergeCell ref="C31:Q31"/>
+    <mergeCell ref="C35:Q35"/>
+    <mergeCell ref="C22:Q22"/>
+    <mergeCell ref="C39:Q39"/>
+    <mergeCell ref="C41:Q41"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="C38:Q38"/>
+    <mergeCell ref="C14:Q14"/>
+    <mergeCell ref="C15:Q15"/>
+    <mergeCell ref="C23:Q23"/>
+    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C30:Q30"/>
+    <mergeCell ref="C32:Q32"/>
+    <mergeCell ref="C33:Q33"/>
+    <mergeCell ref="C36:Q36"/>
+    <mergeCell ref="C37:Q37"/>
+    <mergeCell ref="C34:Q34"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C26:Q26"/>
     <mergeCell ref="C13:Q13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
@@ -6012,39 +7126,299 @@
     <mergeCell ref="C8:Q8"/>
     <mergeCell ref="C9:Q9"/>
     <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="C10:Q10"/>
-    <mergeCell ref="C34:Q34"/>
-    <mergeCell ref="C14:Q14"/>
-    <mergeCell ref="C15:Q15"/>
-    <mergeCell ref="C22:Q22"/>
-    <mergeCell ref="C23:Q23"/>
-    <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C26:Q26"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:Q32"/>
-    <mergeCell ref="C33:Q33"/>
-    <mergeCell ref="C30:Q30"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C31:Q31"/>
-    <mergeCell ref="C21:Q21"/>
-    <mergeCell ref="C35:Q35"/>
-    <mergeCell ref="C37:Q37"/>
-    <mergeCell ref="C38:Q38"/>
-    <mergeCell ref="C39:Q39"/>
-    <mergeCell ref="C40:Q40"/>
-    <mergeCell ref="C36:Q36"/>
-    <mergeCell ref="C19:Q19"/>
-    <mergeCell ref="C20:Q20"/>
-    <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C16:Q16"/>
-    <mergeCell ref="C17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B4EAB8-A8AF-4A5F-9221-1AF1B1F6B090}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A4DBF7-5EA8-4CA3-B0C7-18B4BF293C54}">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="49" customFormat="1">
+      <c r="A1" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329F768B-1005-4F17-97EA-D7926A1C4254}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="49">
+        <v>1696</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="49">
+        <v>1696</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="49">
+        <v>1696</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="49">
+        <v>1696</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="49">
+        <v>1696</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="49">
+        <v>1696</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70105CD5-364E-4FB1-B9C5-8F76786F4E34}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>